--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9557C41-E33A-489D-98DF-853BCD15E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="426">
   <si>
     <t>Nombre</t>
   </si>
@@ -1200,6 +1200,9 @@
     <t>12669681115112121210</t>
   </si>
   <si>
+    <t>20960043032159000000</t>
+  </si>
+  <si>
     <t>09741995T</t>
   </si>
   <si>
@@ -1303,16 +1306,12 @@
   </si>
   <si>
     <t>0945</t>
-  </si>
-  <si>
-    <t>lcoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1720,22 +1719,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125"/>
-    <col min="12" max="12" style="2" width="11.42578125"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1744,76 +1743,76 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s" s="0">
-        <v>416</v>
-      </c>
-      <c r="O1" t="s" s="0">
+      <c r="N1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="O1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C2"/>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>136</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -1823,2426 +1822,2426 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="C3"/>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>310</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>309</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>191</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>140</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>218</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="C4"/>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>304</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>242</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="C5"/>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>308</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>307</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C6"/>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>310</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>309</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>224</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>231</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>223</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C7"/>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>114</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>228</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>208</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C8"/>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>308</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>307</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>114</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>184</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C9"/>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>304</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>117</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10"/>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>304</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>82</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>260</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="C11"/>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>306</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>305</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>249</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>203</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>248</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C12"/>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>308</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>307</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>127</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>258</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C13"/>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>310</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>309</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>246</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>245</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C14"/>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>306</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>305</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="M14" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="M14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>299</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C16"/>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>309</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C17"/>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>310</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>309</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C18"/>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>306</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>305</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>144</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="M18" t="s" s="0">
+      <c r="M18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>293</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C19"/>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>124</v>
       </c>
-      <c r="J19" t="s" s="0">
+      <c r="J19" t="s">
         <v>144</v>
       </c>
-      <c r="K19" t="s" s="0">
+      <c r="K19" t="s">
         <v>162</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M19" t="s" s="0">
+      <c r="M19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C20"/>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="I20" t="s" s="0">
+      <c r="I20" t="s">
         <v>124</v>
       </c>
-      <c r="J20" t="s" s="0">
+      <c r="J20" t="s">
         <v>130</v>
       </c>
-      <c r="K20" t="s" s="0">
+      <c r="K20" t="s">
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M20" t="s" s="0">
+      <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C21"/>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>83</v>
       </c>
-      <c r="H21" t="s" s="0">
+      <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="s" s="0">
+      <c r="I21" t="s">
         <v>235</v>
       </c>
-      <c r="J21" t="s" s="0">
+      <c r="J21" t="s">
         <v>95</v>
       </c>
-      <c r="K21" t="s" s="0">
+      <c r="K21" t="s">
         <v>139</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M21" t="s" s="0">
+      <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C22"/>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>83</v>
       </c>
-      <c r="H22" t="s" s="0">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="s" s="0">
+      <c r="I22" t="s">
         <v>153</v>
       </c>
-      <c r="K22" t="s" s="0">
+      <c r="K22" t="s">
         <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s" s="0">
+      <c r="M22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23"/>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>308</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>307</v>
       </c>
-      <c r="H23" t="s" s="0">
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="I23" t="s" s="0">
+      <c r="I23" t="s">
         <v>252</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="M23" t="s" s="0">
+      <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C24"/>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>310</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s">
         <v>309</v>
       </c>
-      <c r="H24" t="s" s="0">
+      <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="I24" t="s" s="0">
+      <c r="I24" t="s">
         <v>256</v>
       </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s">
         <v>230</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M24" t="s" s="0">
+      <c r="M24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25"/>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>310</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>309</v>
       </c>
-      <c r="H25" t="s" s="0">
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" t="s" s="0">
+      <c r="I25" t="s">
         <v>262</v>
       </c>
-      <c r="K25" t="s" s="0">
+      <c r="K25" t="s">
         <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s" s="0">
+      <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s" s="0">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27"/>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>310</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>309</v>
       </c>
-      <c r="H27" t="s" s="0">
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="I27" t="s" s="0">
+      <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="J27" t="s" s="0">
+      <c r="J27" t="s">
         <v>30</v>
       </c>
-      <c r="K27" t="s" s="0">
-        <v>411</v>
+      <c r="K27" t="s">
+        <v>412</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M27" t="s" s="0">
+      <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28"/>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>310</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>309</v>
       </c>
-      <c r="H28" t="s" s="0">
+      <c r="H28" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s" s="0">
+      <c r="I28" t="s">
         <v>28</v>
       </c>
-      <c r="J28" t="s" s="0">
+      <c r="J28" t="s">
         <v>140</v>
       </c>
-      <c r="K28" t="s" s="0">
+      <c r="K28" t="s">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M28" t="s" s="0">
+      <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29"/>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>83</v>
       </c>
-      <c r="H29" t="s" s="0">
+      <c r="H29" t="s">
         <v>42</v>
       </c>
-      <c r="I29" t="s" s="0">
-        <v>412</v>
-      </c>
-      <c r="J29" t="s" s="0">
+      <c r="I29" t="s">
+        <v>413</v>
+      </c>
+      <c r="J29" t="s">
         <v>242</v>
       </c>
-      <c r="K29" t="s" s="0">
-        <v>413</v>
+      <c r="K29" t="s">
+        <v>414</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M29" t="s" s="0">
+      <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30"/>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>308</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>307</v>
       </c>
-      <c r="H30" t="s" s="0">
+      <c r="H30" t="s">
         <v>38</v>
       </c>
-      <c r="I30" t="s" s="0">
+      <c r="I30" t="s">
         <v>95</v>
       </c>
-      <c r="J30" t="s" s="0">
+      <c r="J30" t="s">
         <v>106</v>
       </c>
-      <c r="K30" t="s" s="0">
+      <c r="K30" t="s">
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M30" t="s" s="0">
+      <c r="M30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31"/>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>83</v>
       </c>
-      <c r="H31" t="s" s="0">
+      <c r="H31" t="s">
         <v>56</v>
       </c>
-      <c r="I31" t="s" s="0">
+      <c r="I31" t="s">
         <v>279</v>
       </c>
-      <c r="J31" t="s" s="0">
+      <c r="J31" t="s">
         <v>231</v>
       </c>
-      <c r="K31" t="s" s="0">
+      <c r="K31" t="s">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="M31" t="s" s="0">
+      <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32"/>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>83</v>
       </c>
-      <c r="H32" t="s" s="0">
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" t="s" s="0">
-        <v>414</v>
-      </c>
-      <c r="J32" t="s" s="0">
-        <v>414</v>
-      </c>
-      <c r="K32" t="s" s="0">
+      <c r="I32" t="s">
+        <v>415</v>
+      </c>
+      <c r="J32" t="s">
+        <v>415</v>
+      </c>
+      <c r="K32" t="s">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="M32" t="s" s="0">
+      <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="0">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36"/>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" t="s" s="0">
+      <c r="G36" t="s">
         <v>83</v>
       </c>
-      <c r="H36" t="s" s="0">
+      <c r="H36" t="s">
         <v>44</v>
       </c>
-      <c r="I36" t="s" s="0">
+      <c r="I36" t="s">
         <v>273</v>
       </c>
-      <c r="J36" t="s" s="0">
+      <c r="J36" t="s">
         <v>203</v>
       </c>
-      <c r="K36" t="s" s="0">
+      <c r="K36" t="s">
         <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="M36" t="s" s="0">
+      <c r="M36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37"/>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="F37" t="s">
         <v>306</v>
       </c>
-      <c r="G37" t="s" s="0">
+      <c r="G37" t="s">
         <v>305</v>
       </c>
-      <c r="H37" t="s" s="0">
+      <c r="H37" t="s">
         <v>39</v>
       </c>
-      <c r="I37" t="s" s="0">
+      <c r="I37" t="s">
         <v>33</v>
       </c>
-      <c r="J37" t="s" s="0">
+      <c r="J37" t="s">
         <v>127</v>
       </c>
-      <c r="K37" t="s" s="0">
+      <c r="K37" t="s">
         <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M37" t="s" s="0">
+      <c r="M37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38"/>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F38" t="s">
         <v>304</v>
       </c>
-      <c r="G38" t="s" s="0">
+      <c r="G38" t="s">
         <v>82</v>
       </c>
-      <c r="H38" t="s" s="0">
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="I38" t="s" s="0">
+      <c r="I38" t="s">
         <v>26</v>
       </c>
-      <c r="J38" t="s" s="0">
+      <c r="J38" t="s">
         <v>27</v>
       </c>
-      <c r="K38" t="s" s="0">
+      <c r="K38" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="M38" t="s" s="0">
+      <c r="M38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39"/>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s" s="0">
+      <c r="F39" t="s">
         <v>304</v>
       </c>
-      <c r="G39" t="s" s="0">
+      <c r="G39" t="s">
         <v>82</v>
       </c>
-      <c r="H39" t="s" s="0">
+      <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="I39" t="s" s="0">
+      <c r="I39" t="s">
         <v>149</v>
       </c>
-      <c r="J39" t="s" s="0">
+      <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K39" t="s" s="0">
+      <c r="K39" t="s">
         <v>94</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s" s="0">
+      <c r="M39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40"/>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="F40" t="s">
         <v>306</v>
       </c>
-      <c r="G40" t="s" s="0">
+      <c r="G40" t="s">
         <v>305</v>
       </c>
-      <c r="H40" t="s" s="0">
+      <c r="H40" t="s">
         <v>44</v>
       </c>
-      <c r="I40" t="s" s="0">
+      <c r="I40" t="s">
         <v>115</v>
       </c>
-      <c r="J40" t="s" s="0">
+      <c r="J40" t="s">
         <v>190</v>
       </c>
-      <c r="K40" t="s" s="0">
+      <c r="K40" t="s">
         <v>170</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M40" t="s" s="0">
+      <c r="M40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41"/>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="F41" t="s">
         <v>304</v>
       </c>
-      <c r="G41" t="s" s="0">
+      <c r="G41" t="s">
         <v>82</v>
       </c>
-      <c r="H41" t="s" s="0">
+      <c r="H41" t="s">
         <v>10</v>
       </c>
-      <c r="I41" t="s" s="0">
+      <c r="I41" t="s">
         <v>115</v>
       </c>
-      <c r="J41" t="s" s="0">
+      <c r="J41" t="s">
         <v>34</v>
       </c>
-      <c r="K41" t="s" s="0">
+      <c r="K41" t="s">
         <v>164</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M41" t="s" s="0">
+      <c r="M41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42"/>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s" s="0">
+      <c r="F42" t="s">
         <v>304</v>
       </c>
-      <c r="G42" t="s" s="0">
+      <c r="G42" t="s">
         <v>82</v>
       </c>
-      <c r="H42" t="s" s="0">
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="I42" t="s" s="0">
+      <c r="I42" t="s">
         <v>194</v>
       </c>
-      <c r="J42" t="s" s="0">
+      <c r="J42" t="s">
         <v>34</v>
       </c>
-      <c r="K42" t="s" s="0">
+      <c r="K42" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="M42" t="s" s="0">
+      <c r="M42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43"/>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s" s="0">
+      <c r="F43" t="s">
         <v>304</v>
       </c>
-      <c r="G43" t="s" s="0">
+      <c r="G43" t="s">
         <v>82</v>
       </c>
-      <c r="H43" t="s" s="0">
+      <c r="H43" t="s">
         <v>38</v>
       </c>
-      <c r="I43" t="s" s="0">
+      <c r="I43" t="s">
         <v>111</v>
       </c>
-      <c r="J43" t="s" s="0">
+      <c r="J43" t="s">
         <v>144</v>
       </c>
-      <c r="K43" t="s" s="0">
+      <c r="K43" t="s">
         <v>206</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M43" t="s" s="0">
+      <c r="M43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44"/>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s" s="0">
+      <c r="F44" t="s">
         <v>308</v>
       </c>
-      <c r="G44" t="s" s="0">
+      <c r="G44" t="s">
         <v>307</v>
       </c>
-      <c r="H44" t="s" s="0">
+      <c r="H44" t="s">
         <v>10</v>
       </c>
-      <c r="I44" t="s" s="0">
+      <c r="I44" t="s">
         <v>111</v>
       </c>
-      <c r="J44" t="s" s="0">
+      <c r="J44" t="s">
         <v>144</v>
       </c>
-      <c r="K44" t="s" s="0">
+      <c r="K44" t="s">
         <v>179</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M44" t="s" s="0">
+      <c r="M44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45"/>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s" s="0">
+      <c r="F45" t="s">
         <v>310</v>
       </c>
-      <c r="G45" t="s" s="0">
+      <c r="G45" t="s">
         <v>309</v>
       </c>
-      <c r="H45" t="s" s="0">
+      <c r="H45" t="s">
         <v>10</v>
       </c>
-      <c r="I45" t="s" s="0">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="J45" t="s" s="0">
+      <c r="J45" t="s">
         <v>130</v>
       </c>
-      <c r="K45" t="s" s="0">
+      <c r="K45" t="s">
         <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M45" t="s" s="0">
+      <c r="M45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46"/>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" t="s" s="0">
+      <c r="G46" t="s">
         <v>83</v>
       </c>
-      <c r="H46" t="s" s="0">
+      <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" t="s" s="0">
+      <c r="I46" t="s">
         <v>165</v>
       </c>
-      <c r="J46" t="s" s="0">
+      <c r="J46" t="s">
         <v>95</v>
       </c>
-      <c r="K46" t="s" s="0">
+      <c r="K46" t="s">
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M46" t="s" s="0">
+      <c r="M46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47"/>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s" s="0">
+      <c r="F47" t="s">
         <v>304</v>
       </c>
-      <c r="G47" t="s" s="0">
+      <c r="G47" t="s">
         <v>82</v>
       </c>
-      <c r="H47" t="s" s="0">
+      <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="I47" t="s" s="0">
+      <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" t="s" s="0">
+      <c r="J47" t="s">
         <v>28</v>
       </c>
-      <c r="K47" t="s" s="0">
+      <c r="K47" t="s">
         <v>155</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M47" t="s" s="0">
+      <c r="M47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48"/>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s" s="0">
+      <c r="F48" t="s">
         <v>310</v>
       </c>
-      <c r="G48" t="s" s="0">
+      <c r="G48" t="s">
         <v>309</v>
       </c>
-      <c r="H48" t="s" s="0">
+      <c r="H48" t="s">
         <v>44</v>
       </c>
-      <c r="I48" t="s" s="0">
+      <c r="I48" t="s">
         <v>167</v>
       </c>
-      <c r="J48" t="s" s="0">
+      <c r="J48" t="s">
         <v>28</v>
       </c>
-      <c r="K48" t="s" s="0">
+      <c r="K48" t="s">
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M48" t="s" s="0">
+      <c r="M48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49"/>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s" s="0">
+      <c r="F49" t="s">
         <v>304</v>
       </c>
-      <c r="G49" t="s" s="0">
+      <c r="G49" t="s">
         <v>82</v>
       </c>
-      <c r="H49" t="s" s="0">
+      <c r="H49" t="s">
         <v>44</v>
       </c>
-      <c r="I49" t="s" s="0">
+      <c r="I49" t="s">
         <v>115</v>
       </c>
-      <c r="J49" t="s" s="0">
+      <c r="J49" t="s">
         <v>100</v>
       </c>
-      <c r="K49" t="s" s="0">
+      <c r="K49" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M49" t="s" s="0">
+      <c r="M49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50"/>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s" s="0">
+      <c r="F50" t="s">
         <v>67</v>
       </c>
-      <c r="G50" t="s" s="0">
+      <c r="G50" t="s">
         <v>83</v>
       </c>
-      <c r="H50" t="s" s="0">
+      <c r="H50" t="s">
         <v>9</v>
       </c>
-      <c r="I50" t="s" s="0">
+      <c r="I50" t="s">
         <v>216</v>
       </c>
-      <c r="J50" t="s" s="0">
+      <c r="J50" t="s">
         <v>176</v>
       </c>
-      <c r="K50" t="s" s="0">
+      <c r="K50" t="s">
         <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M50" t="s" s="0">
+      <c r="M50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51"/>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>18</v>
       </c>
-      <c r="G51" t="s" s="0">
+      <c r="G51" t="s">
         <v>83</v>
       </c>
-      <c r="H51" t="s" s="0">
+      <c r="H51" t="s">
         <v>8</v>
       </c>
-      <c r="I51" t="s" s="0">
+      <c r="I51" t="s">
         <v>216</v>
       </c>
-      <c r="J51" t="s" s="0">
+      <c r="J51" t="s">
         <v>124</v>
       </c>
-      <c r="K51" t="s" s="0">
+      <c r="K51" t="s">
         <v>198</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M51" t="s" s="0">
+      <c r="M51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>299</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52"/>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s" s="0">
+      <c r="F52" t="s">
         <v>308</v>
       </c>
-      <c r="G52" t="s" s="0">
+      <c r="G52" t="s">
         <v>307</v>
       </c>
-      <c r="H52" t="s" s="0">
+      <c r="H52" t="s">
         <v>11</v>
       </c>
-      <c r="I52" t="s" s="0">
+      <c r="I52" t="s">
         <v>27</v>
       </c>
-      <c r="J52" t="s" s="0">
+      <c r="J52" t="s">
         <v>124</v>
       </c>
-      <c r="K52" t="s" s="0">
+      <c r="K52" t="s">
         <v>134</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M52" t="s" s="0">
+      <c r="M52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53"/>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s" s="0">
+      <c r="F53" t="s">
         <v>308</v>
       </c>
-      <c r="G53" t="s" s="0">
+      <c r="G53" t="s">
         <v>307</v>
       </c>
-      <c r="H53" t="s" s="0">
+      <c r="H53" t="s">
         <v>9</v>
       </c>
-      <c r="I53" t="s" s="0">
+      <c r="I53" t="s">
         <v>28</v>
       </c>
-      <c r="J53" t="s" s="0">
+      <c r="J53" t="s">
         <v>78</v>
       </c>
-      <c r="K53" t="s" s="0">
+      <c r="K53" t="s">
         <v>218</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M53" t="s" s="0">
+      <c r="M53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54"/>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s" s="0">
+      <c r="F54" t="s">
         <v>308</v>
       </c>
-      <c r="G54" t="s" s="0">
+      <c r="G54" t="s">
         <v>307</v>
       </c>
-      <c r="H54" t="s" s="0">
+      <c r="H54" t="s">
         <v>9</v>
       </c>
-      <c r="I54" t="s" s="0">
+      <c r="I54" t="s">
         <v>80</v>
       </c>
-      <c r="J54" t="s" s="0">
+      <c r="J54" t="s">
         <v>161</v>
       </c>
-      <c r="K54" t="s" s="0">
+      <c r="K54" t="s">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M54" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="M54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55"/>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s" s="0">
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" t="s" s="0">
+      <c r="G55" t="s">
         <v>83</v>
       </c>
-      <c r="H55" t="s" s="0">
+      <c r="H55" t="s">
         <v>41</v>
       </c>
-      <c r="I55" t="s" s="0">
+      <c r="I55" t="s">
         <v>165</v>
       </c>
-      <c r="J55" t="s" s="0">
+      <c r="J55" t="s">
         <v>123</v>
       </c>
-      <c r="K55" t="s" s="0">
+      <c r="K55" t="s">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M55" t="s" s="0">
+      <c r="M55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="0">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60"/>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s" s="0">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="G60" t="s" s="0">
+      <c r="G60" t="s">
         <v>309</v>
       </c>
-      <c r="H60" t="s" s="0">
+      <c r="H60" t="s">
         <v>38</v>
       </c>
-      <c r="I60" t="s" s="0">
+      <c r="I60" t="s">
         <v>79</v>
       </c>
-      <c r="J60" t="s" s="0">
+      <c r="J60" t="s">
         <v>233</v>
       </c>
-      <c r="K60" t="s" s="0">
+      <c r="K60" t="s">
         <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M60" t="s" s="0">
+      <c r="M60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61"/>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s" s="0">
+      <c r="F61" t="s">
         <v>306</v>
       </c>
-      <c r="G61" t="s" s="0">
+      <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="H61" t="s" s="0">
+      <c r="H61" t="s">
         <v>56</v>
       </c>
-      <c r="I61" t="s" s="0">
+      <c r="I61" t="s">
         <v>240</v>
       </c>
-      <c r="J61" t="s" s="0">
+      <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="K61" t="s" s="0">
-        <v>415</v>
+      <c r="K61" t="s">
+        <v>416</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M61" t="s" s="0">
+      <c r="M61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62"/>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s" s="0">
+      <c r="F62" t="s">
         <v>304</v>
       </c>
-      <c r="G62" t="s" s="0">
+      <c r="G62" t="s">
         <v>82</v>
       </c>
-      <c r="H62" t="s" s="0">
+      <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" t="s" s="0">
+      <c r="I62" t="s">
         <v>115</v>
       </c>
-      <c r="J62" t="s" s="0">
+      <c r="J62" t="s">
         <v>167</v>
       </c>
-      <c r="K62" t="s" s="0">
+      <c r="K62" t="s">
         <v>258</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="M62" t="s" s="0">
+      <c r="M62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63"/>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s" s="0">
+      <c r="F63" t="s">
         <v>304</v>
       </c>
-      <c r="G63" t="s" s="0">
+      <c r="G63" t="s">
         <v>82</v>
       </c>
-      <c r="H63" t="s" s="0">
+      <c r="H63" t="s">
         <v>9</v>
       </c>
-      <c r="I63" t="s" s="0">
+      <c r="I63" t="s">
         <v>132</v>
       </c>
-      <c r="J63" t="s" s="0">
+      <c r="J63" t="s">
         <v>183</v>
       </c>
-      <c r="K63" t="s" s="0">
+      <c r="K63" t="s">
         <v>245</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s" s="0">
+      <c r="M63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64"/>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s" s="0">
+      <c r="F64" t="s">
         <v>308</v>
       </c>
-      <c r="G64" t="s" s="0">
+      <c r="G64" t="s">
         <v>307</v>
       </c>
-      <c r="H64" t="s" s="0">
+      <c r="H64" t="s">
         <v>10</v>
       </c>
-      <c r="I64" t="s" s="0">
+      <c r="I64" t="s">
         <v>221</v>
       </c>
-      <c r="K64" t="s" s="0">
+      <c r="K64" t="s">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M64" t="s" s="0">
+      <c r="M64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65"/>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s" s="0">
+      <c r="F65" t="s">
         <v>308</v>
       </c>
-      <c r="G65" t="s" s="0">
+      <c r="G65" t="s">
         <v>307</v>
       </c>
-      <c r="H65" t="s" s="0">
+      <c r="H65" t="s">
         <v>41</v>
       </c>
-      <c r="I65" t="s" s="0">
+      <c r="I65" t="s">
         <v>29</v>
       </c>
-      <c r="K65" t="s" s="0">
+      <c r="K65" t="s">
         <v>69</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M65" t="s" s="0">
+      <c r="M65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66"/>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s" s="0">
+      <c r="F66" t="s">
         <v>304</v>
       </c>
-      <c r="G66" t="s" s="0">
+      <c r="G66" t="s">
         <v>82</v>
       </c>
-      <c r="H66" t="s" s="0">
+      <c r="H66" t="s">
         <v>44</v>
       </c>
-      <c r="I66" t="s" s="0">
+      <c r="I66" t="s">
         <v>238</v>
       </c>
-      <c r="K66" t="s" s="0">
+      <c r="K66" t="s">
         <v>283</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M66" t="s" s="0">
+      <c r="M66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67"/>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s" s="0">
+      <c r="F67" t="s">
         <v>304</v>
       </c>
-      <c r="G67" t="s" s="0">
+      <c r="G67" t="s">
         <v>82</v>
       </c>
-      <c r="H67" t="s" s="0">
+      <c r="H67" t="s">
         <v>39</v>
       </c>
-      <c r="I67" t="s" s="0">
+      <c r="I67" t="s">
         <v>107</v>
       </c>
-      <c r="J67" t="s" s="0">
+      <c r="J67" t="s">
         <v>28</v>
       </c>
-      <c r="K67" t="s" s="0">
+      <c r="K67" t="s">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="M67" t="s" s="0">
+      <c r="M67" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68"/>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s" s="0">
+      <c r="F68" t="s">
         <v>306</v>
       </c>
-      <c r="G68" t="s" s="0">
+      <c r="G68" t="s">
         <v>305</v>
       </c>
-      <c r="H68" t="s" s="0">
+      <c r="H68" t="s">
         <v>9</v>
       </c>
-      <c r="I68" t="s" s="0">
+      <c r="I68" t="s">
         <v>16</v>
       </c>
-      <c r="J68" t="s" s="0">
+      <c r="J68" t="s">
         <v>28</v>
       </c>
-      <c r="K68" t="s" s="0">
+      <c r="K68" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="M68" t="s" s="0">
+      <c r="M68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69"/>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s" s="0">
+      <c r="F69" t="s">
         <v>306</v>
       </c>
-      <c r="G69" t="s" s="0">
+      <c r="G69" t="s">
         <v>305</v>
       </c>
-      <c r="H69" t="s" s="0">
+      <c r="H69" t="s">
         <v>11</v>
       </c>
-      <c r="I69" t="s" s="0">
+      <c r="I69" t="s">
         <v>28</v>
       </c>
-      <c r="J69" t="s" s="0">
+      <c r="J69" t="s">
         <v>100</v>
       </c>
-      <c r="K69" t="s" s="0">
+      <c r="K69" t="s">
         <v>162</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M69" t="s" s="0">
+      <c r="M69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70"/>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s" s="0">
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="G70" t="s" s="0">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="H70" t="s" s="0">
+      <c r="H70" t="s">
         <v>44</v>
       </c>
-      <c r="I70" t="s" s="0">
+      <c r="I70" t="s">
         <v>184</v>
       </c>
-      <c r="J70" t="s" s="0">
+      <c r="J70" t="s">
         <v>176</v>
       </c>
-      <c r="K70" t="s" s="0">
+      <c r="K70" t="s">
         <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="M70" t="s" s="0">
+      <c r="M70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s" s="0">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71"/>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s" s="0">
+      <c r="F71" t="s">
         <v>306</v>
       </c>
-      <c r="G71" t="s" s="0">
+      <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="H71" t="s" s="0">
+      <c r="H71" t="s">
         <v>10</v>
       </c>
-      <c r="I71" t="s" s="0">
+      <c r="I71" t="s">
         <v>184</v>
       </c>
-      <c r="J71" t="s" s="0">
+      <c r="J71" t="s">
         <v>124</v>
       </c>
-      <c r="K71" t="s" s="0">
+      <c r="K71" t="s">
         <v>208</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M71" t="s" s="0">
+      <c r="M71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s" s="0">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>303</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72"/>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s" s="0">
+      <c r="F72" t="s">
         <v>304</v>
       </c>
-      <c r="G72" t="s" s="0">
+      <c r="G72" t="s">
         <v>82</v>
       </c>
-      <c r="H72" t="s" s="0">
+      <c r="H72" t="s">
         <v>39</v>
       </c>
-      <c r="I72" t="s" s="0">
+      <c r="I72" t="s">
         <v>31</v>
       </c>
-      <c r="J72" t="s" s="0">
+      <c r="J72" t="s">
         <v>124</v>
       </c>
-      <c r="K72" t="s" s="0">
+      <c r="K72" t="s">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M72" t="s" s="0">
+      <c r="M72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s" s="0">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73"/>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s" s="0">
+      <c r="F73" t="s">
         <v>310</v>
       </c>
-      <c r="G73" t="s" s="0">
+      <c r="G73" t="s">
         <v>309</v>
       </c>
-      <c r="H73" t="s" s="0">
+      <c r="H73" t="s">
         <v>38</v>
       </c>
-      <c r="I73" t="s" s="0">
+      <c r="I73" t="s">
         <v>141</v>
       </c>
-      <c r="J73" t="s" s="0">
+      <c r="J73" t="s">
         <v>78</v>
       </c>
-      <c r="K73" t="s" s="0">
+      <c r="K73" t="s">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M73" t="s" s="0">
+      <c r="M73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s" s="0">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74"/>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s" s="0">
+      <c r="F74" t="s">
         <v>18</v>
       </c>
-      <c r="G74" t="s" s="0">
+      <c r="G74" t="s">
         <v>83</v>
       </c>
-      <c r="H74" t="s" s="0">
+      <c r="H74" t="s">
         <v>10</v>
       </c>
-      <c r="I74" t="s" s="0">
+      <c r="I74" t="s">
         <v>243</v>
       </c>
-      <c r="J74" t="s" s="0">
+      <c r="J74" t="s">
         <v>161</v>
       </c>
-      <c r="K74" t="s" s="0">
+      <c r="K74" t="s">
         <v>234</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M74" t="s" s="0">
+      <c r="M74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s" s="0">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75"/>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s" s="0">
+      <c r="F75" t="s">
         <v>304</v>
       </c>
-      <c r="G75" t="s" s="0">
+      <c r="G75" t="s">
         <v>82</v>
       </c>
-      <c r="H75" t="s" s="0">
+      <c r="H75" t="s">
         <v>10</v>
       </c>
-      <c r="I75" t="s" s="0">
+      <c r="I75" t="s">
         <v>107</v>
       </c>
-      <c r="J75" t="s" s="0">
+      <c r="J75" t="s">
         <v>123</v>
       </c>
-      <c r="K75" t="s" s="0">
+      <c r="K75" t="s">
         <v>151</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M75" t="s" s="0">
+      <c r="M75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s" s="0">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>295</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76"/>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s" s="0">
+      <c r="F76" t="s">
         <v>18</v>
       </c>
-      <c r="G76" t="s" s="0">
+      <c r="G76" t="s">
         <v>83</v>
       </c>
-      <c r="H76" t="s" s="0">
+      <c r="H76" t="s">
         <v>11</v>
       </c>
-      <c r="I76" t="s" s="0">
+      <c r="I76" t="s">
         <v>214</v>
       </c>
-      <c r="J76" t="s" s="0">
+      <c r="J76" t="s">
         <v>131</v>
       </c>
-      <c r="K76" t="s" s="0">
+      <c r="K76" t="s">
         <v>250</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="M76" t="s" s="0">
+      <c r="M76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="0">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77"/>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s" s="0">
+      <c r="F77" t="s">
         <v>310</v>
       </c>
-      <c r="G77" t="s" s="0">
+      <c r="G77" t="s">
         <v>309</v>
       </c>
-      <c r="H77" t="s" s="0">
+      <c r="H77" t="s">
         <v>44</v>
       </c>
-      <c r="I77" t="s" s="0">
+      <c r="I77" t="s">
         <v>229</v>
       </c>
-      <c r="J77" t="s" s="0">
+      <c r="J77" t="s">
         <v>220</v>
       </c>
-      <c r="K77" t="s" s="0">
+      <c r="K77" t="s">
         <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M77" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="M77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s" s="0">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79"/>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s" s="0">
+      <c r="F79" t="s">
         <v>304</v>
       </c>
-      <c r="G79" t="s" s="0">
+      <c r="G79" t="s">
         <v>82</v>
       </c>
-      <c r="H79" t="s" s="0">
+      <c r="H79" t="s">
         <v>44</v>
       </c>
-      <c r="I79" t="s" s="0">
+      <c r="I79" t="s">
         <v>118</v>
       </c>
-      <c r="J79" t="s" s="0">
+      <c r="J79" t="s">
         <v>237</v>
       </c>
-      <c r="K79" t="s" s="0">
+      <c r="K79" t="s">
         <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M79" t="s" s="0">
+      <c r="M79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s" s="0">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4251,105 +4250,105 @@
       <c r="E80" s="1">
         <v>43009</v>
       </c>
-      <c r="F80" t="s" s="0">
+      <c r="F80" t="s">
         <v>304</v>
       </c>
-      <c r="G80" t="s" s="0">
+      <c r="G80" t="s">
         <v>82</v>
       </c>
-      <c r="H80" t="s" s="0">
+      <c r="H80" t="s">
         <v>12</v>
       </c>
-      <c r="I80" t="s" s="0">
+      <c r="I80" t="s">
         <v>28</v>
       </c>
-      <c r="J80" t="s" s="0">
+      <c r="J80" t="s">
         <v>233</v>
       </c>
-      <c r="K80" t="s" s="0">
+      <c r="K80" t="s">
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M80" t="s" s="0">
+      <c r="M80" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s" s="0">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81"/>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s" s="0">
+      <c r="F81" t="s">
         <v>308</v>
       </c>
-      <c r="G81" t="s" s="0">
+      <c r="G81" t="s">
         <v>307</v>
       </c>
-      <c r="H81" t="s" s="0">
+      <c r="H81" t="s">
         <v>45</v>
       </c>
-      <c r="I81" t="s" s="0">
+      <c r="I81" t="s">
         <v>203</v>
       </c>
-      <c r="J81" t="s" s="0">
+      <c r="J81" t="s">
         <v>17</v>
       </c>
-      <c r="K81" t="s" s="0">
+      <c r="K81" t="s">
         <v>186</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M81" t="s" s="0">
+      <c r="M81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s" s="0">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82"/>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s" s="0">
+      <c r="F82" t="s">
         <v>304</v>
       </c>
-      <c r="G82" t="s" s="0">
+      <c r="G82" t="s">
         <v>82</v>
       </c>
-      <c r="H82" t="s" s="0">
+      <c r="H82" t="s">
         <v>39</v>
       </c>
-      <c r="I82" t="s" s="0">
+      <c r="I82" t="s">
         <v>135</v>
       </c>
-      <c r="J82" t="s" s="0">
+      <c r="J82" t="s">
         <v>167</v>
       </c>
-      <c r="K82" t="s" s="0">
+      <c r="K82" t="s">
         <v>169</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M82" t="s" s="0">
+      <c r="M82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s" s="0">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>301</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -4358,435 +4357,435 @@
       <c r="E83" s="1">
         <v>36861</v>
       </c>
-      <c r="F83" t="s" s="0">
+      <c r="F83" t="s">
         <v>308</v>
       </c>
-      <c r="G83" t="s" s="0">
+      <c r="G83" t="s">
         <v>307</v>
       </c>
-      <c r="H83" t="s" s="0">
+      <c r="H83" t="s">
         <v>43</v>
       </c>
-      <c r="I83" t="s" s="0">
+      <c r="I83" t="s">
         <v>98</v>
       </c>
-      <c r="J83" t="s" s="0">
+      <c r="J83" t="s">
         <v>183</v>
       </c>
-      <c r="K83" t="s" s="0">
+      <c r="K83" t="s">
         <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M83" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M83" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s" s="0">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84"/>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s" s="0">
+      <c r="F84" t="s">
         <v>18</v>
       </c>
-      <c r="G84" t="s" s="0">
+      <c r="G84" t="s">
         <v>83</v>
       </c>
-      <c r="H84" t="s" s="0">
+      <c r="H84" t="s">
         <v>41</v>
       </c>
-      <c r="I84" t="s" s="0">
+      <c r="I84" t="s">
         <v>28</v>
       </c>
-      <c r="K84" t="s" s="0">
+      <c r="K84" t="s">
         <v>277</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M84" t="s" s="0">
+      <c r="M84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="0">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86"/>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s" s="0">
+      <c r="F86" t="s">
         <v>304</v>
       </c>
-      <c r="G86" t="s" s="0">
+      <c r="G86" t="s">
         <v>82</v>
       </c>
-      <c r="H86" t="s" s="0">
+      <c r="H86" t="s">
         <v>8</v>
       </c>
-      <c r="I86" t="s" s="0">
+      <c r="I86" t="s">
         <v>26</v>
       </c>
-      <c r="J86" t="s" s="0">
+      <c r="J86" t="s">
         <v>160</v>
       </c>
-      <c r="K86" t="s" s="0">
+      <c r="K86" t="s">
         <v>265</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M86" t="s" s="0">
+      <c r="M86" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s" s="0">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87"/>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s" s="0">
+      <c r="F87" t="s">
         <v>308</v>
       </c>
-      <c r="G87" t="s" s="0">
+      <c r="G87" t="s">
         <v>307</v>
       </c>
-      <c r="H87" t="s" s="0">
+      <c r="H87" t="s">
         <v>9</v>
       </c>
-      <c r="I87" t="s" s="0">
+      <c r="I87" t="s">
         <v>178</v>
       </c>
-      <c r="J87" t="s" s="0">
+      <c r="J87" t="s">
         <v>152</v>
       </c>
-      <c r="K87" t="s" s="0">
+      <c r="K87" t="s">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M87" t="s" s="0">
+      <c r="M87" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s" s="0">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88"/>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s" s="0">
+      <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="G88" t="s" s="0">
+      <c r="G88" t="s">
         <v>82</v>
       </c>
-      <c r="H88" t="s" s="0">
+      <c r="H88" t="s">
         <v>8</v>
       </c>
-      <c r="I88" t="s" s="0">
+      <c r="I88" t="s">
         <v>28</v>
       </c>
-      <c r="J88" t="s" s="0">
+      <c r="J88" t="s">
         <v>251</v>
       </c>
-      <c r="K88" t="s" s="0">
+      <c r="K88" t="s">
         <v>268</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M88" t="s" s="0">
+      <c r="M88" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s" s="0">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89"/>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s" s="0">
+      <c r="F89" t="s">
         <v>310</v>
       </c>
-      <c r="G89" t="s" s="0">
+      <c r="G89" t="s">
         <v>309</v>
       </c>
-      <c r="H89" t="s" s="0">
+      <c r="H89" t="s">
         <v>10</v>
       </c>
-      <c r="I89" t="s" s="0">
+      <c r="I89" t="s">
         <v>145</v>
       </c>
-      <c r="J89" t="s" s="0">
+      <c r="J89" t="s">
         <v>255</v>
       </c>
-      <c r="K89" t="s" s="0">
+      <c r="K89" t="s">
         <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="M89" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M89" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s" s="0">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>299</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90"/>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s" s="0">
+      <c r="F90" t="s">
         <v>308</v>
       </c>
-      <c r="G90" t="s" s="0">
+      <c r="G90" t="s">
         <v>307</v>
       </c>
-      <c r="H90" t="s" s="0">
+      <c r="H90" t="s">
         <v>41</v>
       </c>
-      <c r="I90" t="s" s="0">
+      <c r="I90" t="s">
         <v>171</v>
       </c>
-      <c r="K90" t="s" s="0">
+      <c r="K90" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="M90" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M90" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s" s="0">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>298</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91"/>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s" s="0">
+      <c r="F91" t="s">
         <v>306</v>
       </c>
-      <c r="G91" t="s" s="0">
+      <c r="G91" t="s">
         <v>305</v>
       </c>
-      <c r="H91" t="s" s="0">
+      <c r="H91" t="s">
         <v>8</v>
       </c>
-      <c r="I91" t="s" s="0">
+      <c r="I91" t="s">
         <v>115</v>
       </c>
-      <c r="J91" t="s" s="0">
+      <c r="J91" t="s">
         <v>211</v>
       </c>
-      <c r="K91" t="s" s="0">
+      <c r="K91" t="s">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M91" t="s" s="0">
+      <c r="M91" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s" s="0">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92"/>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s" s="0">
+      <c r="F92" t="s">
         <v>308</v>
       </c>
-      <c r="G92" t="s" s="0">
+      <c r="G92" t="s">
         <v>307</v>
       </c>
-      <c r="H92" t="s" s="0">
+      <c r="H92" t="s">
         <v>8</v>
       </c>
-      <c r="I92" t="s" s="0">
+      <c r="I92" t="s">
         <v>24</v>
       </c>
-      <c r="J92" t="s" s="0">
+      <c r="J92" t="s">
         <v>174</v>
       </c>
-      <c r="K92" t="s" s="0">
+      <c r="K92" t="s">
         <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M92" t="s" s="0">
+      <c r="M92" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s" s="0">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93"/>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s" s="0">
+      <c r="F93" t="s">
         <v>310</v>
       </c>
-      <c r="G93" t="s" s="0">
+      <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="H93" t="s" s="0">
+      <c r="H93" t="s">
         <v>56</v>
       </c>
-      <c r="I93" t="s" s="0">
+      <c r="I93" t="s">
         <v>207</v>
       </c>
-      <c r="J93" t="s" s="0">
+      <c r="J93" t="s">
         <v>187</v>
       </c>
-      <c r="K93" t="s" s="0">
+      <c r="K93" t="s">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M93" t="s" s="0">
+      <c r="M93" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s" s="0">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94"/>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s" s="0">
+      <c r="F94" t="s">
         <v>310</v>
       </c>
-      <c r="G94" t="s" s="0">
+      <c r="G94" t="s">
         <v>309</v>
       </c>
-      <c r="H94" t="s" s="0">
+      <c r="H94" t="s">
         <v>8</v>
       </c>
-      <c r="I94" t="s" s="0">
+      <c r="I94" t="s">
         <v>95</v>
       </c>
-      <c r="J94" t="s" s="0">
+      <c r="J94" t="s">
         <v>33</v>
       </c>
-      <c r="K94" t="s" s="0">
+      <c r="K94" t="s">
         <v>193</v>
       </c>
-      <c r="M94" t="s" s="0">
+      <c r="M94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s" s="0">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95"/>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s" s="0">
+      <c r="F95" t="s">
         <v>18</v>
       </c>
-      <c r="G95" t="s" s="0">
+      <c r="G95" t="s">
         <v>83</v>
       </c>
-      <c r="H95" t="s" s="0">
+      <c r="H95" t="s">
         <v>9</v>
       </c>
-      <c r="I95" t="s" s="0">
+      <c r="I95" t="s">
         <v>95</v>
       </c>
-      <c r="J95" t="s" s="0">
+      <c r="J95" t="s">
         <v>33</v>
       </c>
-      <c r="K95" t="s" s="0">
+      <c r="K95" t="s">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="M95" t="s" s="0">
+      <c r="M95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s" s="0">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C98"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C100"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>291</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4795,33 +4794,33 @@
       <c r="E102" s="1">
         <v>43070</v>
       </c>
-      <c r="F102" t="s" s="0">
+      <c r="F102" t="s">
         <v>310</v>
       </c>
-      <c r="G102" t="s" s="0">
+      <c r="G102" t="s">
         <v>309</v>
       </c>
-      <c r="H102" t="s" s="0">
+      <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102" t="s" s="0">
+      <c r="I102" t="s">
         <v>171</v>
       </c>
-      <c r="J102" t="s" s="0">
+      <c r="J102" t="s">
         <v>32</v>
       </c>
-      <c r="K102" t="s" s="0">
+      <c r="K102" t="s">
         <v>234</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s" s="0">
+      <c r="M102" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s" s="0">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>293</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4830,69 +4829,69 @@
       <c r="E103" s="1">
         <v>43952</v>
       </c>
-      <c r="F103" t="s" s="0">
+      <c r="F103" t="s">
         <v>310</v>
       </c>
-      <c r="G103" t="s" s="0">
+      <c r="G103" t="s">
         <v>309</v>
       </c>
-      <c r="H103" t="s" s="0">
+      <c r="H103" t="s">
         <v>45</v>
       </c>
-      <c r="I103" t="s" s="0">
+      <c r="I103" t="s">
         <v>115</v>
       </c>
-      <c r="J103" t="s" s="0">
+      <c r="J103" t="s">
         <v>25</v>
       </c>
-      <c r="K103" t="s" s="0">
+      <c r="K103" t="s">
         <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="M103" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="M103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s" s="0">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104"/>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s" s="0">
+      <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="G104" t="s" s="0">
+      <c r="G104" t="s">
         <v>83</v>
       </c>
-      <c r="H104" t="s" s="0">
+      <c r="H104" t="s">
         <v>39</v>
       </c>
-      <c r="I104" t="s" s="0">
+      <c r="I104" t="s">
         <v>24</v>
       </c>
-      <c r="J104" t="s" s="0">
+      <c r="J104" t="s">
         <v>148</v>
       </c>
-      <c r="K104" t="s" s="0">
+      <c r="K104" t="s">
         <v>250</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M104" t="s" s="0">
+      <c r="M104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s" s="0">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4901,33 +4900,33 @@
       <c r="E105" s="1">
         <v>44014</v>
       </c>
-      <c r="F105" t="s" s="0">
+      <c r="F105" t="s">
         <v>304</v>
       </c>
-      <c r="G105" t="s" s="0">
+      <c r="G105" t="s">
         <v>82</v>
       </c>
-      <c r="H105" t="s" s="0">
+      <c r="H105" t="s">
         <v>43</v>
       </c>
-      <c r="I105" t="s" s="0">
+      <c r="I105" t="s">
         <v>207</v>
       </c>
-      <c r="J105" t="s" s="0">
+      <c r="J105" t="s">
         <v>114</v>
       </c>
-      <c r="K105" t="s" s="0">
+      <c r="K105" t="s">
         <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M105" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M105" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s" s="0">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>292</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4936,33 +4935,33 @@
       <c r="E106" s="1">
         <v>41093</v>
       </c>
-      <c r="F106" t="s" s="0">
+      <c r="F106" t="s">
         <v>18</v>
       </c>
-      <c r="G106" t="s" s="0">
+      <c r="G106" t="s">
         <v>83</v>
       </c>
-      <c r="H106" t="s" s="0">
+      <c r="H106" t="s">
         <v>41</v>
       </c>
-      <c r="I106" t="s" s="0">
-        <v>412</v>
-      </c>
-      <c r="J106" t="s" s="0">
+      <c r="I106" t="s">
+        <v>413</v>
+      </c>
+      <c r="J106" t="s">
         <v>17</v>
       </c>
-      <c r="K106" t="s" s="0">
+      <c r="K106" t="s">
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M106" t="s" s="0">
+      <c r="M106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s" s="0">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -4971,33 +4970,33 @@
       <c r="E127" s="1">
         <v>39142</v>
       </c>
-      <c r="F127" t="s" s="0">
+      <c r="F127" t="s">
         <v>304</v>
       </c>
-      <c r="G127" t="s" s="0">
+      <c r="G127" t="s">
         <v>82</v>
       </c>
-      <c r="H127" t="s" s="0">
+      <c r="H127" t="s">
         <v>12</v>
       </c>
-      <c r="I127" t="s" s="0">
+      <c r="I127" t="s">
         <v>31</v>
       </c>
-      <c r="J127" t="s" s="0">
+      <c r="J127" t="s">
         <v>278</v>
       </c>
-      <c r="K127" t="s" s="0">
+      <c r="K127" t="s">
         <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M127" t="s" s="0">
+      <c r="M127" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s" s="0">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>294</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5006,33 +5005,33 @@
       <c r="E128" s="1">
         <v>36739</v>
       </c>
-      <c r="F128" t="s" s="0">
+      <c r="F128" t="s">
         <v>310</v>
       </c>
-      <c r="G128" t="s" s="0">
+      <c r="G128" t="s">
         <v>309</v>
       </c>
-      <c r="H128" t="s" s="0">
+      <c r="H128" t="s">
         <v>45</v>
       </c>
-      <c r="I128" t="s" s="0">
+      <c r="I128" t="s">
         <v>141</v>
       </c>
-      <c r="J128" t="s" s="0">
+      <c r="J128" t="s">
         <v>264</v>
       </c>
-      <c r="K128" t="s" s="0">
+      <c r="K128" t="s">
         <v>157</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M128" t="s" s="0">
+      <c r="M128" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s" s="0">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -5041,33 +5040,33 @@
       <c r="E129" s="1">
         <v>42125</v>
       </c>
-      <c r="F129" t="s" s="0">
+      <c r="F129" t="s">
         <v>306</v>
       </c>
-      <c r="G129" t="s" s="0">
+      <c r="G129" t="s">
         <v>305</v>
       </c>
-      <c r="H129" t="s" s="0">
+      <c r="H129" t="s">
         <v>39</v>
       </c>
-      <c r="I129" t="s" s="0">
+      <c r="I129" t="s">
         <v>243</v>
       </c>
-      <c r="J129" t="s" s="0">
+      <c r="J129" t="s">
         <v>266</v>
       </c>
-      <c r="K129" t="s" s="0">
+      <c r="K129" t="s">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="M129" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="M129" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s" s="0">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -5076,33 +5075,33 @@
       <c r="E130" s="1">
         <v>39052</v>
       </c>
-      <c r="F130" t="s" s="0">
+      <c r="F130" t="s">
         <v>304</v>
       </c>
-      <c r="G130" t="s" s="0">
+      <c r="G130" t="s">
         <v>82</v>
       </c>
-      <c r="H130" t="s" s="0">
+      <c r="H130" t="s">
         <v>43</v>
       </c>
-      <c r="I130" t="s" s="0">
+      <c r="I130" t="s">
         <v>107</v>
       </c>
-      <c r="J130" t="s" s="0">
+      <c r="J130" t="s">
         <v>103</v>
       </c>
-      <c r="K130" t="s" s="0">
+      <c r="K130" t="s">
         <v>268</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M130" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="M130" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s" s="0">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -5111,33 +5110,33 @@
       <c r="E131" s="1">
         <v>40391</v>
       </c>
-      <c r="F131" t="s" s="0">
+      <c r="F131" t="s">
         <v>306</v>
       </c>
-      <c r="G131" t="s" s="0">
+      <c r="G131" t="s">
         <v>305</v>
       </c>
-      <c r="H131" t="s" s="0">
+      <c r="H131" t="s">
         <v>41</v>
       </c>
-      <c r="I131" t="s" s="0">
+      <c r="I131" t="s">
         <v>214</v>
       </c>
-      <c r="J131" t="s" s="0">
+      <c r="J131" t="s">
         <v>269</v>
       </c>
-      <c r="K131" t="s" s="0">
+      <c r="K131" t="s">
         <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M131" t="s" s="0">
+      <c r="M131" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s" s="0">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5146,33 +5145,33 @@
       <c r="E132" s="1">
         <v>40909</v>
       </c>
-      <c r="F132" t="s" s="0">
+      <c r="F132" t="s">
         <v>18</v>
       </c>
-      <c r="G132" t="s" s="0">
+      <c r="G132" t="s">
         <v>83</v>
       </c>
-      <c r="H132" t="s" s="0">
+      <c r="H132" t="s">
         <v>9</v>
       </c>
-      <c r="I132" t="s" s="0">
+      <c r="I132" t="s">
         <v>229</v>
       </c>
-      <c r="J132" t="s" s="0">
+      <c r="J132" t="s">
         <v>272</v>
       </c>
-      <c r="K132" t="s" s="0">
+      <c r="K132" t="s">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M132" t="s" s="0">
+      <c r="M132" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s" s="0">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5181,33 +5180,33 @@
       <c r="E133" s="1">
         <v>41456</v>
       </c>
-      <c r="F133" t="s" s="0">
+      <c r="F133" t="s">
         <v>18</v>
       </c>
-      <c r="G133" t="s" s="0">
+      <c r="G133" t="s">
         <v>83</v>
       </c>
-      <c r="H133" t="s" s="0">
+      <c r="H133" t="s">
         <v>8</v>
       </c>
-      <c r="I133" t="s" s="0">
+      <c r="I133" t="s">
         <v>24</v>
       </c>
-      <c r="J133" t="s" s="0">
+      <c r="J133" t="s">
         <v>32</v>
       </c>
-      <c r="K133" t="s" s="0">
+      <c r="K133" t="s">
         <v>21</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M133" t="s" s="0">
+      <c r="M133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s" s="0">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5216,33 +5215,33 @@
       <c r="E134" s="1">
         <v>42248</v>
       </c>
-      <c r="F134" t="s" s="0">
+      <c r="F134" t="s">
         <v>308</v>
       </c>
-      <c r="G134" t="s" s="0">
+      <c r="G134" t="s">
         <v>307</v>
       </c>
-      <c r="H134" t="s" s="0">
+      <c r="H134" t="s">
         <v>9</v>
       </c>
-      <c r="I134" t="s" s="0">
+      <c r="I134" t="s">
         <v>118</v>
       </c>
-      <c r="J134" t="s" s="0">
+      <c r="J134" t="s">
         <v>25</v>
       </c>
-      <c r="K134" t="s" s="0">
+      <c r="K134" t="s">
         <v>147</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M134" t="s" s="0">
+      <c r="M134" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s" s="0">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>296</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -5251,30 +5250,30 @@
       <c r="E135" s="1">
         <v>39995</v>
       </c>
-      <c r="F135" t="s" s="0">
+      <c r="F135" t="s">
         <v>310</v>
       </c>
-      <c r="G135" t="s" s="0">
+      <c r="G135" t="s">
         <v>309</v>
       </c>
-      <c r="H135" t="s" s="0">
+      <c r="H135" t="s">
         <v>8</v>
       </c>
-      <c r="I135" t="s" s="0">
+      <c r="I135" t="s">
         <v>28</v>
       </c>
-      <c r="J135" t="s" s="0">
+      <c r="J135" t="s">
         <v>148</v>
       </c>
-      <c r="K135" t="s" s="0">
+      <c r="K135" t="s">
         <v>113</v>
       </c>
-      <c r="M135" t="s" s="0">
+      <c r="M135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s" s="0">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>291</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -5283,28 +5282,28 @@
       <c r="E136" s="1">
         <v>39356</v>
       </c>
-      <c r="F136" t="s" s="0">
+      <c r="F136" t="s">
         <v>306</v>
       </c>
-      <c r="G136" t="s" s="0">
+      <c r="G136" t="s">
         <v>305</v>
       </c>
-      <c r="H136" t="s" s="0">
+      <c r="H136" t="s">
         <v>10</v>
       </c>
-      <c r="I136" t="s" s="0">
+      <c r="I136" t="s">
         <v>203</v>
       </c>
-      <c r="J136" t="s" s="0">
+      <c r="J136" t="s">
         <v>114</v>
       </c>
-      <c r="K136" t="s" s="0">
+      <c r="K136" t="s">
         <v>193</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M136" t="s" s="0">
+      <c r="M136" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5315,185 +5314,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625"/>
-    <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.85546875"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>12500</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1850</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>13000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1500</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>14000</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1800</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="0">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>19000</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>3500</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>26000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>4800</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>17500</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>2750</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>21000</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>3500</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="0">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>31000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>10500</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>12500</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>1200</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>14500</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>1350</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="0">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>20500</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>1500</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="0">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>16500</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>1500</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="0">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>11000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>1100</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="0">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>31000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>5500</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5510,161 +5509,161 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>230</v>
       </c>
     </row>
@@ -5681,469 +5680,469 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.42578125"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>12000</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>13000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3.6</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="0">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>14000</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>6.5</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="0">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>15000</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>8.5</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="0">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>16000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="0">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>17000</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>10.55</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="0">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>18000</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>11.15</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="0">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>19000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20000</v>
+      </c>
+      <c r="B10">
+        <v>12.15</v>
+      </c>
+      <c r="F10" t="s">
         <v>419</v>
       </c>
-      <c r="G9" s="0">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="0">
-        <v>20000</v>
-      </c>
-      <c r="B10" s="0">
-        <v>12.15</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>418</v>
-      </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="0">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>21000</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="0">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>22000</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="0">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>23000</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="0">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>24000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="0">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>25000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="0">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>26000</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>27000</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>28000</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>29000</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>30000</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>31000</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>32000</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>33000</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>34000</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>35000</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>36000</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>37000</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>38000</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>39000</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>40000</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>41000</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>42000</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>43000</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>44000</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>45000</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>46000</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>47000</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>48000</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>49000</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="0">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>50000</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="0">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>51000</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="0">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>52000</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="0">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>53000</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="0">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>54000</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="0">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>55000</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="0">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>56000</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="0">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>57000</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="0">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>58000</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="0">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>59000</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="0">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>60000</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>26.22</v>
       </c>
     </row>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D8CACC-86C2-4EF6-BC46-E933196A8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="426">
   <si>
     <t>Nombre</t>
   </si>
@@ -606,9 +606,6 @@
     <t>Fuertes</t>
   </si>
   <si>
-    <t>09548150E</t>
-  </si>
-  <si>
     <t>Hugo</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
     <t>10575307E</t>
   </si>
   <si>
-    <t>09632539R</t>
-  </si>
-  <si>
     <t>Pérez</t>
   </si>
   <si>
@@ -966,15 +960,9 @@
     <t>99558741836555551120</t>
   </si>
   <si>
-    <t>09548150L</t>
-  </si>
-  <si>
     <t>32541112811220000588</t>
   </si>
   <si>
-    <t>09548416X</t>
-  </si>
-  <si>
     <t>12548521518742146695</t>
   </si>
   <si>
@@ -1044,9 +1032,6 @@
     <t>65168874641561561500</t>
   </si>
   <si>
-    <t>09548295P</t>
-  </si>
-  <si>
     <t>36952365020014425254</t>
   </si>
   <si>
@@ -1089,9 +1074,6 @@
     <t>36585214290025478551</t>
   </si>
   <si>
-    <t>09785530J</t>
-  </si>
-  <si>
     <t>21651651812511133551</t>
   </si>
   <si>
@@ -1128,9 +1110,6 @@
     <t>X8996448K</t>
   </si>
   <si>
-    <t>09548827E</t>
-  </si>
-  <si>
     <t>66552211148855332200</t>
   </si>
   <si>
@@ -1306,12 +1285,34 @@
   </si>
   <si>
     <t>0945</t>
+  </si>
+  <si>
+    <t>9548416N</t>
+  </si>
+  <si>
+    <t>9548150E</t>
+  </si>
+  <si>
+    <t>9548295Y</t>
+  </si>
+  <si>
+    <t>9785530L</t>
+  </si>
+  <si>
+    <t>9548827D</t>
+  </si>
+  <si>
+    <t>9632539R</t>
+  </si>
+  <si>
+    <t>09548150A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1719,22 +1720,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="2"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125"/>
+    <col min="12" max="12" style="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1743,76 +1744,75 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
-        <v>417</v>
-      </c>
-      <c r="O1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="N1" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2"/>
+        <v>404</v>
+      </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -1822,3321 +1822,3198 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3"/>
+        <v>403</v>
+      </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="K3" t="s">
-        <v>218</v>
+      <c r="K3" t="s" s="0">
+        <v>216</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>297</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>295</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4"/>
+        <v>402</v>
+      </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5"/>
+        <v>401</v>
+      </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>290</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>288</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6"/>
+        <v>400</v>
+      </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K6" t="s">
-        <v>223</v>
+      <c r="I6" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>221</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7"/>
+        <v>393</v>
+      </c>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" t="s">
-        <v>208</v>
+      <c r="J7" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>206</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8"/>
+        <v>399</v>
+      </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9"/>
+        <v>398</v>
+      </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" t="s">
+        <v>420</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10"/>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
-        <v>260</v>
+      <c r="K10" t="s" s="0">
+        <v>258</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11"/>
+        <v>396</v>
+      </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" t="s">
-        <v>248</v>
+      <c r="I11" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>246</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="M11" t="s">
+        <v>317</v>
+      </c>
+      <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>294</v>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>292</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12"/>
+        <v>395</v>
+      </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F12" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
-        <v>258</v>
+      <c r="K12" t="s" s="0">
+        <v>256</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>300</v>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>298</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13"/>
+        <v>394</v>
+      </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F13" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
-        <v>245</v>
+      <c r="K13" t="s" s="0">
+        <v>243</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14"/>
+        <v>387</v>
+      </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F14" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M14" t="s">
+        <v>414</v>
+      </c>
+      <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>299</v>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>297</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16"/>
+        <v>392</v>
+      </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F16" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
-        <v>283</v>
+      <c r="K16" t="s" s="0">
+        <v>281</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17"/>
+        <v>391</v>
+      </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F17" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>291</v>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>289</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18"/>
+        <v>390</v>
+      </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F18" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M18" t="s">
+        <v>419</v>
+      </c>
+      <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>293</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
+        <v>291</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19"/>
+        <v>389</v>
+      </c>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" t="s" s="0">
         <v>162</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20"/>
+        <v>388</v>
+      </c>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" t="s" s="0">
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M20" t="s">
+        <v>420</v>
+      </c>
+      <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21"/>
+        <v>387</v>
+      </c>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="J21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>139</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C22"/>
+        <v>385</v>
+      </c>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="K22" t="s">
-        <v>241</v>
+      <c r="K22" t="s" s="0">
+        <v>239</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23"/>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" t="s">
-        <v>307</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F23" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
-        <v>252</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="I23" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="M23" t="s">
+        <v>349</v>
+      </c>
+      <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24"/>
+        <v>383</v>
+      </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s">
-        <v>310</v>
-      </c>
-      <c r="G24" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F24" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I24" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" t="s">
-        <v>230</v>
+      <c r="I24" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>228</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25"/>
+        <v>382</v>
+      </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s">
-        <v>310</v>
-      </c>
-      <c r="G25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I25" t="s">
-        <v>262</v>
-      </c>
-      <c r="K25" t="s">
-        <v>227</v>
+      <c r="I25" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>225</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27"/>
+        <v>381</v>
+      </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G27" t="s">
-        <v>309</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F27" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
-        <v>412</v>
+      <c r="K27" t="s" s="0">
+        <v>405</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28"/>
+        <v>380</v>
+      </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G28" t="s">
-        <v>309</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F28" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H28" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" t="s" s="0">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>303</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="0">
+        <v>301</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29"/>
+        <v>379</v>
+      </c>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I29" t="s">
-        <v>413</v>
-      </c>
-      <c r="J29" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" t="s">
-        <v>414</v>
+      <c r="I29" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>407</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C30"/>
+        <v>378</v>
+      </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s">
-        <v>308</v>
-      </c>
-      <c r="G30" t="s">
-        <v>307</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F30" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H30" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" t="s" s="0">
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31"/>
+        <v>377</v>
+      </c>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I31" t="s">
-        <v>279</v>
-      </c>
-      <c r="J31" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="I31" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s" s="0">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M31" t="s">
+        <v>342</v>
+      </c>
+      <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>301</v>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="0">
+        <v>299</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32"/>
+        <v>376</v>
+      </c>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
-        <v>415</v>
-      </c>
-      <c r="J32" t="s">
-        <v>415</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="I32" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="K32" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M32" t="s">
+        <v>341</v>
+      </c>
+      <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C36"/>
+        <v>372</v>
+      </c>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I36" t="s">
-        <v>273</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I36" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="K36" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="K36" t="s">
-        <v>205</v>
-      </c>
       <c r="L36" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M36" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37"/>
+        <v>371</v>
+      </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s">
-        <v>306</v>
-      </c>
-      <c r="G37" t="s">
-        <v>305</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H37" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" t="s" s="0">
         <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38"/>
+        <v>370</v>
+      </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" t="s" s="0">
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="M38" t="s">
+        <v>421</v>
+      </c>
+      <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39"/>
+        <v>369</v>
+      </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s">
-        <v>304</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" t="s" s="0">
         <v>94</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C40"/>
+        <v>368</v>
+      </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s">
-        <v>306</v>
-      </c>
-      <c r="G40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="F40" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H40" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" t="s" s="0">
         <v>170</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C41"/>
+        <v>367</v>
+      </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s">
-        <v>304</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G41" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" t="s" s="0">
         <v>164</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42"/>
+        <v>366</v>
+      </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s">
-        <v>304</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I42" t="s">
-        <v>194</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="I42" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J42" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" t="s" s="0">
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="M42" t="s">
+        <v>422</v>
+      </c>
+      <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C43"/>
+        <v>364</v>
+      </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s">
-        <v>304</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G43" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K43" t="s">
-        <v>206</v>
+      <c r="K43" t="s" s="0">
+        <v>204</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M43" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44"/>
+        <v>363</v>
+      </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s">
-        <v>308</v>
-      </c>
-      <c r="G44" t="s">
-        <v>307</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F44" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H44" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45"/>
+        <v>362</v>
+      </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" t="s">
-        <v>309</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F45" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H45" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K45" t="s">
-        <v>213</v>
+      <c r="K45" t="s" s="0">
+        <v>211</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M45" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46"/>
+        <v>361</v>
+      </c>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" t="s" s="0">
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M46" t="s">
+        <v>234</v>
+      </c>
+      <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47"/>
+        <v>360</v>
+      </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s">
-        <v>304</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G47" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" t="s" s="0">
         <v>155</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48"/>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s">
-        <v>310</v>
-      </c>
-      <c r="G48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F48" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" t="s" s="0">
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M48" t="s">
+        <v>251</v>
+      </c>
+      <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49"/>
+        <v>358</v>
+      </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s">
-        <v>304</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G49" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M49" t="s">
+        <v>255</v>
+      </c>
+      <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50"/>
+        <v>357</v>
+      </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
-        <v>216</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I50" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="J50" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="K50" t="s">
-        <v>198</v>
+      <c r="K50" t="s" s="0">
+        <v>197</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M50" t="s">
+        <v>261</v>
+      </c>
+      <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51"/>
+        <v>355</v>
+      </c>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I51" t="s">
-        <v>216</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="I51" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="J51" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K51" t="s">
-        <v>198</v>
+      <c r="K51" t="s" s="0">
+        <v>197</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M51" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>299</v>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s" s="0">
+        <v>297</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52"/>
+        <v>354</v>
+      </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s">
-        <v>308</v>
-      </c>
-      <c r="G52" t="s">
-        <v>307</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="F52" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H52" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" t="s" s="0">
         <v>134</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53"/>
+        <v>353</v>
+      </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s">
-        <v>308</v>
-      </c>
-      <c r="G53" t="s">
-        <v>307</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="F53" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H53" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="K53" t="s">
-        <v>218</v>
+      <c r="K53" t="s" s="0">
+        <v>216</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54"/>
+        <v>352</v>
+      </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" t="s">
-        <v>307</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="F54" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H54" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s">
+        <v>415</v>
+      </c>
+      <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C55"/>
+        <v>351</v>
+      </c>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M55" t="s">
+        <v>274</v>
+      </c>
+      <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60"/>
+        <v>335</v>
+      </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s">
-        <v>310</v>
-      </c>
-      <c r="G60" t="s">
-        <v>309</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="F60" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H60" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J60" t="s">
-        <v>233</v>
-      </c>
-      <c r="K60" t="s">
-        <v>260</v>
+      <c r="J60" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>258</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M60" t="s">
+        <v>268</v>
+      </c>
+      <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61"/>
+        <v>347</v>
+      </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s">
-        <v>306</v>
-      </c>
-      <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="F61" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I61" t="s">
-        <v>240</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="I61" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K61" t="s">
-        <v>416</v>
+      <c r="K61" t="s" s="0">
+        <v>409</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C62"/>
+        <v>346</v>
+      </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s">
-        <v>304</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G62" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="K62" t="s">
-        <v>258</v>
+      <c r="K62" t="s" s="0">
+        <v>256</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="M62" t="s">
+        <v>365</v>
+      </c>
+      <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63"/>
+        <v>345</v>
+      </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s">
-        <v>304</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G63" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="K63" t="s">
-        <v>245</v>
+      <c r="K63" t="s" s="0">
+        <v>243</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64"/>
+        <v>344</v>
+      </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s">
-        <v>308</v>
-      </c>
-      <c r="G64" t="s">
-        <v>307</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="F64" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
-        <v>221</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="I64" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="K64" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65"/>
+        <v>343</v>
+      </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s">
-        <v>308</v>
-      </c>
-      <c r="G65" t="s">
-        <v>307</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="F65" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H65" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" t="s" s="0">
         <v>69</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66"/>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G66" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I66" t="s">
-        <v>238</v>
-      </c>
-      <c r="K66" t="s">
-        <v>283</v>
+      <c r="I66" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="K66" t="s" s="0">
+        <v>281</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M66" t="s">
+        <v>194</v>
+      </c>
+      <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C67"/>
+        <v>340</v>
+      </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s">
-        <v>304</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G67" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="M67" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68"/>
+        <v>339</v>
+      </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s">
-        <v>306</v>
-      </c>
-      <c r="G68" t="s">
-        <v>305</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="F68" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H68" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="M68" t="s">
+        <v>359</v>
+      </c>
+      <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C69"/>
+        <v>338</v>
+      </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s">
-        <v>306</v>
-      </c>
-      <c r="G69" t="s">
-        <v>305</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="F69" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H69" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" t="s" s="0">
         <v>162</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70"/>
+        <v>337</v>
+      </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s">
-        <v>306</v>
-      </c>
-      <c r="G70" t="s">
-        <v>305</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="F70" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H70" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="K70" t="s">
-        <v>223</v>
+      <c r="K70" t="s" s="0">
+        <v>221</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="M70" t="s">
+        <v>356</v>
+      </c>
+      <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C71"/>
+        <v>335</v>
+      </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s">
-        <v>306</v>
-      </c>
-      <c r="G71" t="s">
-        <v>305</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="F71" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H71" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K71" t="s">
-        <v>208</v>
+      <c r="K71" t="s" s="0">
+        <v>206</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M71" t="s">
+        <v>196</v>
+      </c>
+      <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>303</v>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s" s="0">
+        <v>301</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72"/>
+        <v>334</v>
+      </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s">
-        <v>304</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G72" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73"/>
+        <v>333</v>
+      </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s">
-        <v>310</v>
-      </c>
-      <c r="G73" t="s">
-        <v>309</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="F73" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H73" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C74"/>
+        <v>332</v>
+      </c>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I74" t="s">
-        <v>243</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="I74" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="J74" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="K74" t="s">
-        <v>234</v>
+      <c r="K74" t="s" s="0">
+        <v>232</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75"/>
+        <v>331</v>
+      </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s">
-        <v>304</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G75" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" t="s" s="0">
         <v>151</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M75" t="s">
+        <v>215</v>
+      </c>
+      <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>295</v>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s" s="0">
+        <v>293</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76"/>
+        <v>330</v>
+      </c>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I76" t="s">
-        <v>214</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="I76" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J76" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="K76" t="s">
-        <v>250</v>
+      <c r="K76" t="s" s="0">
+        <v>248</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M76" t="s">
+        <v>336</v>
+      </c>
+      <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C77"/>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s">
-        <v>310</v>
-      </c>
-      <c r="G77" t="s">
-        <v>309</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="F77" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I77" t="s">
-        <v>229</v>
-      </c>
-      <c r="J77" t="s">
-        <v>220</v>
-      </c>
-      <c r="K77" t="s">
-        <v>254</v>
+      <c r="I77" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="K77" t="s" s="0">
+        <v>252</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M77" t="s">
+        <v>416</v>
+      </c>
+      <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79"/>
+        <v>329</v>
+      </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s">
-        <v>304</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G79" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J79" t="s">
-        <v>237</v>
-      </c>
-      <c r="K79" t="s">
-        <v>210</v>
+      <c r="J79" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="K79" t="s" s="0">
+        <v>208</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
-      <c r="F80" t="s">
-        <v>304</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G80" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J80" t="s">
-        <v>233</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="J80" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="K80" t="s" s="0">
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M80" t="s">
+        <v>265</v>
+      </c>
+      <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81"/>
+        <v>328</v>
+      </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s">
-        <v>308</v>
-      </c>
-      <c r="G81" t="s">
-        <v>307</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="F81" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I81" t="s">
-        <v>203</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="I81" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="J81" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" t="s" s="0">
         <v>186</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82"/>
+        <v>327</v>
+      </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s">
-        <v>304</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G82" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" t="s" s="0">
         <v>169</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>301</v>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s" s="0">
+        <v>299</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
-      <c r="F83" t="s">
-        <v>308</v>
-      </c>
-      <c r="G83" t="s">
-        <v>307</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="F83" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H83" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="K83" t="s">
-        <v>275</v>
+      <c r="K83" t="s" s="0">
+        <v>273</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M83" t="s">
+        <v>417</v>
+      </c>
+      <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84"/>
+        <v>326</v>
+      </c>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K84" t="s">
-        <v>277</v>
+      <c r="K84" t="s" s="0">
+        <v>275</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M84" t="s">
+        <v>278</v>
+      </c>
+      <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86"/>
+        <v>324</v>
+      </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s">
-        <v>304</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F86" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G86" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="K86" t="s">
-        <v>265</v>
+      <c r="K86" t="s" s="0">
+        <v>263</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M86" t="s">
+        <v>198</v>
+      </c>
+      <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>294</v>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s" s="0">
+        <v>292</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C87"/>
+        <v>323</v>
+      </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s">
-        <v>308</v>
-      </c>
-      <c r="G87" t="s">
-        <v>307</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="F87" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H87" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" t="s" s="0">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88"/>
+        <v>322</v>
+      </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s">
-        <v>304</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G88" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J88" t="s">
-        <v>251</v>
-      </c>
-      <c r="K88" t="s">
-        <v>268</v>
+      <c r="J88" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="K88" t="s" s="0">
+        <v>266</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M88" t="s">
+        <v>217</v>
+      </c>
+      <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89"/>
+        <v>321</v>
+      </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s">
-        <v>310</v>
-      </c>
-      <c r="G89" t="s">
-        <v>309</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="F89" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H89" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="J89" t="s">
-        <v>255</v>
-      </c>
-      <c r="K89" t="s">
-        <v>271</v>
+      <c r="J89" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="K89" t="s" s="0">
+        <v>269</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="M89" t="s">
+        <v>397</v>
+      </c>
+      <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>299</v>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s" s="0">
+        <v>297</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90"/>
+        <v>320</v>
+      </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s">
-        <v>308</v>
-      </c>
-      <c r="G90" t="s">
-        <v>307</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="F90" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H90" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="M90" t="s">
+        <v>397</v>
+      </c>
+      <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>298</v>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s" s="0">
+        <v>296</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91"/>
+        <v>319</v>
+      </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s">
-        <v>306</v>
-      </c>
-      <c r="G91" t="s">
-        <v>305</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="F91" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H91" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J91" t="s">
-        <v>211</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="J91" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M91" t="s">
+        <v>223</v>
+      </c>
+      <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92"/>
+        <v>318</v>
+      </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s">
-        <v>308</v>
-      </c>
-      <c r="G92" t="s">
-        <v>307</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="F92" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H92" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" t="s" s="0">
         <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="M92" t="s">
+        <v>207</v>
+      </c>
+      <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93"/>
+        <v>316</v>
+      </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s">
-        <v>310</v>
-      </c>
-      <c r="G93" t="s">
-        <v>309</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="F93" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I93" t="s">
-        <v>207</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="I93" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J93" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" t="s" s="0">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M93" t="s">
+        <v>280</v>
+      </c>
+      <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>291</v>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s" s="0">
+        <v>289</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94"/>
+        <v>314</v>
+      </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s">
-        <v>310</v>
-      </c>
-      <c r="G94" t="s">
-        <v>309</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="F94" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H94" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K94" t="s">
-        <v>193</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="K94" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C95"/>
+        <v>313</v>
+      </c>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" t="s" s="0">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M95" t="s">
+        <v>259</v>
+      </c>
+      <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C98"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C100"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>291</v>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s" s="0">
+        <v>289</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
-      <c r="F102" t="s">
-        <v>310</v>
-      </c>
-      <c r="G102" t="s">
-        <v>309</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="F102" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H102" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="K102" t="s">
-        <v>234</v>
+      <c r="K102" t="s" s="0">
+        <v>232</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>293</v>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s" s="0">
+        <v>291</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
-      <c r="F103" t="s">
-        <v>310</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="F103" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="K103" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="M103" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H103" t="s">
-        <v>45</v>
-      </c>
-      <c r="I103" t="s">
-        <v>115</v>
-      </c>
-      <c r="J103" t="s">
-        <v>25</v>
-      </c>
-      <c r="K103" t="s">
-        <v>151</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="M103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>302</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104"/>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="K104" t="s">
-        <v>250</v>
+      <c r="K104" t="s" s="0">
+        <v>248</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
-      <c r="F105" t="s">
-        <v>304</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="F105" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G105" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I105" t="s">
-        <v>207</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="I105" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J105" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="K105" t="s">
-        <v>254</v>
+      <c r="K105" t="s" s="0">
+        <v>252</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M105" t="s">
+        <v>418</v>
+      </c>
+      <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>292</v>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s" s="0">
+        <v>290</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I106" t="s">
-        <v>413</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="I106" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="J106" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" t="s" s="0">
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M106" t="s">
+        <v>257</v>
+      </c>
+      <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
-      <c r="F127" t="s">
-        <v>304</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F127" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G127" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J127" t="s">
-        <v>278</v>
-      </c>
-      <c r="K127" t="s">
-        <v>196</v>
+      <c r="J127" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="K127" t="s" s="0">
+        <v>195</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M127" t="s">
+        <v>280</v>
+      </c>
+      <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>294</v>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s" s="0">
+        <v>292</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
-      <c r="F128" t="s">
-        <v>310</v>
-      </c>
-      <c r="G128" t="s">
-        <v>309</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="F128" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H128" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="J128" t="s">
-        <v>264</v>
-      </c>
-      <c r="K128" t="s">
+      <c r="J128" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="K128" t="s" s="0">
         <v>157</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
-      <c r="F129" t="s">
-        <v>306</v>
-      </c>
-      <c r="G129" t="s">
-        <v>305</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="F129" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I129" t="s">
-        <v>243</v>
-      </c>
-      <c r="J129" t="s">
-        <v>266</v>
-      </c>
-      <c r="K129" t="s">
+      <c r="I129" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="K129" t="s" s="0">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="M129" t="s">
+        <v>386</v>
+      </c>
+      <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
-      <c r="F130" t="s">
-        <v>304</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="F130" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G130" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="K130" t="s">
-        <v>268</v>
+      <c r="K130" t="s" s="0">
+        <v>266</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M130" t="s">
+        <v>386</v>
+      </c>
+      <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
-      <c r="F131" t="s">
-        <v>306</v>
-      </c>
-      <c r="G131" t="s">
-        <v>305</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="F131" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I131" t="s">
-        <v>214</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="I131" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="K131" t="s" s="0">
         <v>269</v>
-      </c>
-      <c r="K131" t="s">
-        <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5145,165 +5022,165 @@
       <c r="E132" s="1">
         <v>40909</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I132" t="s">
-        <v>229</v>
-      </c>
-      <c r="J132" t="s">
-        <v>272</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="I132" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="K132" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M132" t="s">
+        <v>242</v>
+      </c>
+      <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
-      <c r="F134" t="s">
-        <v>308</v>
-      </c>
-      <c r="G134" t="s">
-        <v>307</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="F134" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="H134" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" t="s" s="0">
         <v>147</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M134" t="s">
+        <v>230</v>
+      </c>
+      <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>296</v>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s" s="0">
+        <v>294</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
-      <c r="F135" t="s">
-        <v>310</v>
-      </c>
-      <c r="G135" t="s">
-        <v>309</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="F135" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="H135" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>291</v>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s" s="0">
+        <v>289</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
-      <c r="F136" t="s">
-        <v>306</v>
-      </c>
-      <c r="G136" t="s">
-        <v>305</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="F136" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I136" t="s">
-        <v>203</v>
-      </c>
-      <c r="J136" t="s">
+      <c r="I136" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="J136" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="K136" t="s">
-        <v>193</v>
+      <c r="K136" t="s" s="0">
+        <v>192</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M136" t="s">
+        <v>245</v>
+      </c>
+      <c r="M136" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -5314,185 +5191,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>12500</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1850</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1500</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1800</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
         <v>19000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>3500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>26000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>4800</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
         <v>17500</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>2750</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
         <v>21000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>3500</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
         <v>31000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>10500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
         <v>12500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>1200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
         <v>14500</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>1350</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
         <v>20500</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>1500</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
         <v>16500</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>1500</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
         <v>11000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>1100</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
         <v>31000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>5500</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>44</v>
       </c>
     </row>
@@ -5509,161 +5386,161 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>230</v>
       </c>
     </row>
@@ -5680,469 +5557,469 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="41.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="41.42578125"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>12000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>3.6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>6.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
         <v>15000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>8.5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>16000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
         <v>17000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>10.55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
         <v>18000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>11.15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
         <v>19000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
         <v>20000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>12.15</v>
       </c>
-      <c r="F10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
         <v>21000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
         <v>22000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
         <v>23000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
         <v>24000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
         <v>25000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="0">
         <v>26000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="0">
         <v>27000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="0">
         <v>28000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="0">
         <v>29000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="0">
         <v>30000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="0">
         <v>31000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="0">
         <v>32000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
         <v>33000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="0">
         <v>34000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="0">
         <v>35000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="0">
         <v>36000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="0">
         <v>37000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="0">
         <v>38000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="0">
         <v>39000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="0">
         <v>40000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="0">
         <v>41000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="0">
         <v>42000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="0">
         <v>43000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="0">
         <v>44000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="0">
         <v>45000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="0">
         <v>46000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="0">
         <v>47000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="0">
         <v>48000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="0">
         <v>49000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="0">
         <v>50000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="0">
         <v>51000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="0">
         <v>52000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="0">
         <v>53000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="0">
         <v>54000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="0">
         <v>55000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="0">
         <v>56000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="0">
         <v>57000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="0">
         <v>58000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="0">
         <v>59000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="0">
         <v>60000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>26.22</v>
       </c>
     </row>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D8CACC-86C2-4EF6-BC46-E933196A8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="431">
   <si>
     <t>Nombre</t>
   </si>
@@ -606,6 +606,9 @@
     <t>Fuertes</t>
   </si>
   <si>
+    <t>09548150E</t>
+  </si>
+  <si>
     <t>Hugo</t>
   </si>
   <si>
@@ -633,6 +636,9 @@
     <t>10575307E</t>
   </si>
   <si>
+    <t>09632539R</t>
+  </si>
+  <si>
     <t>Pérez</t>
   </si>
   <si>
@@ -960,9 +966,15 @@
     <t>99558741836555551120</t>
   </si>
   <si>
+    <t>09548150L</t>
+  </si>
+  <si>
     <t>32541112811220000588</t>
   </si>
   <si>
+    <t>09548416X</t>
+  </si>
+  <si>
     <t>12548521518742146695</t>
   </si>
   <si>
@@ -1032,6 +1044,9 @@
     <t>65168874641561561500</t>
   </si>
   <si>
+    <t>09548295P</t>
+  </si>
+  <si>
     <t>36952365020014425254</t>
   </si>
   <si>
@@ -1074,6 +1089,9 @@
     <t>36585214290025478551</t>
   </si>
   <si>
+    <t>09785530J</t>
+  </si>
+  <si>
     <t>21651651812511133551</t>
   </si>
   <si>
@@ -1110,6 +1128,9 @@
     <t>X8996448K</t>
   </si>
   <si>
+    <t>09548827E</t>
+  </si>
+  <si>
     <t>66552211148855332200</t>
   </si>
   <si>
@@ -1300,12 +1321,6 @@
   </si>
   <si>
     <t>9548827D</t>
-  </si>
-  <si>
-    <t>9632539R</t>
-  </si>
-  <si>
-    <t>09548150A</t>
   </si>
 </sst>
 </file>
@@ -1720,21 +1735,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125"/>
-    <col min="12" max="12" style="2" width="11.42578125"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="12" max="12" style="2" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
@@ -1775,19 +1790,20 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>404</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
@@ -1810,7 +1826,7 @@
         <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>424</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>46</v>
@@ -1822,21 +1838,22 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>403</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>38</v>
@@ -1848,7 +1865,7 @@
         <v>140</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
@@ -1857,18 +1874,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>402</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>82</v>
@@ -1880,7 +1898,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>47</v>
@@ -1892,21 +1910,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>401</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -1921,39 +1940,40 @@
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>400</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
@@ -1962,13 +1982,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
@@ -1985,10 +2006,10 @@
         <v>114</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
@@ -1997,21 +2018,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>399</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>40</v>
@@ -2026,24 +2048,25 @@
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>398</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>82</v>
@@ -2061,24 +2084,25 @@
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>82</v>
@@ -2093,7 +2117,7 @@
         <v>121</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2102,56 +2126,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>396</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>395</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
@@ -2163,42 +2189,43 @@
         <v>127</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>394</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>146</v>
@@ -2207,21 +2234,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>387</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>11</v>
@@ -2236,27 +2264,31 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>392</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>9</v>
@@ -2268,7 +2300,7 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
@@ -2277,21 +2309,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>391</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>8</v>
@@ -2312,21 +2345,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>390</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>8</v>
@@ -2341,19 +2375,20 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>389</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
@@ -2382,13 +2417,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
@@ -2411,19 +2447,20 @@
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>387</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
@@ -2437,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>95</v>
@@ -2452,13 +2489,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>385</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
@@ -2475,71 +2513,73 @@
         <v>153</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C23" s="2"/>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>383</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>159</v>
@@ -2548,30 +2588,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>382</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
@@ -2580,21 +2621,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>381</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>8</v>
@@ -2606,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
@@ -2615,21 +2660,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>380</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>12</v>
@@ -2650,13 +2696,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>379</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
@@ -2670,13 +2717,13 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
@@ -2685,21 +2732,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>378</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>38</v>
@@ -2714,19 +2762,20 @@
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
@@ -2740,28 +2789,29 @@
         <v>56</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="0">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
@@ -2775,28 +2825,38 @@
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>372</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
@@ -2810,36 +2870,37 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>39</v>
@@ -2854,24 +2915,25 @@
         <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>370</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>82</v>
@@ -2889,24 +2951,25 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>369</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>82</v>
@@ -2930,21 +2993,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>368</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>44</v>
@@ -2959,24 +3023,25 @@
         <v>170</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>367</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>82</v>
@@ -3000,18 +3065,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>82</v>
@@ -3020,7 +3086,7 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>34</v>
@@ -3029,24 +3095,25 @@
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>364</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>82</v>
@@ -3061,30 +3128,31 @@
         <v>144</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>10</v>
@@ -3105,21 +3173,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>10</v>
@@ -3131,22 +3200,23 @@
         <v>130</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>361</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
@@ -3169,24 +3239,25 @@
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>82</v>
@@ -3210,21 +3281,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C48" s="2"/>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>44</v>
@@ -3239,24 +3311,25 @@
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>358</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>82</v>
@@ -3274,19 +3347,20 @@
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>357</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
@@ -3300,28 +3374,29 @@
         <v>9</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J50" t="s" s="0">
         <v>176</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>355</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
@@ -3335,36 +3410,37 @@
         <v>8</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J51" t="s" s="0">
         <v>124</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>354</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>11</v>
@@ -3385,21 +3461,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>353</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>9</v>
@@ -3411,7 +3488,7 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>188</v>
@@ -3420,21 +3497,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>352</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>9</v>
@@ -3449,19 +3527,20 @@
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>351</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
@@ -3484,27 +3563,40 @@
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>38</v>
@@ -3513,65 +3605,67 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>347</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>346</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>82</v>
@@ -3586,27 +3680,28 @@
         <v>167</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>345</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>82</v>
@@ -3621,7 +3716,7 @@
         <v>183</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
@@ -3630,27 +3725,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>344</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s" s="0">
         <v>77</v>
@@ -3662,21 +3758,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>343</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>41</v>
@@ -3694,18 +3791,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C66" s="2"/>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>82</v>
@@ -3714,30 +3812,31 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>340</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>82</v>
@@ -3755,27 +3854,28 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>9</v>
@@ -3790,27 +3890,28 @@
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>338</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>11</v>
@@ -3831,21 +3932,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>337</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>44</v>
@@ -3857,30 +3959,31 @@
         <v>176</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>10</v>
@@ -3892,27 +3995,28 @@
         <v>124</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>334</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>82</v>
@@ -3936,21 +4040,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>333</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>38</v>
@@ -3971,13 +4076,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>332</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
@@ -3991,13 +4097,13 @@
         <v>10</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J74" t="s" s="0">
         <v>161</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>138</v>
@@ -4006,18 +4112,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>82</v>
@@ -4035,19 +4142,20 @@
         <v>151</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
@@ -4061,68 +4169,70 @@
         <v>11</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J76" t="s" s="0">
         <v>131</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C77" s="2"/>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>329</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>82</v>
@@ -4134,10 +4244,10 @@
         <v>118</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
@@ -4146,18 +4256,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G80" t="s" s="0">
         <v>82</v>
@@ -4169,39 +4279,40 @@
         <v>28</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>328</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s" s="0">
         <v>17</v>
@@ -4216,18 +4327,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>327</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>82</v>
@@ -4251,21 +4363,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>43</v>
@@ -4277,22 +4389,23 @@
         <v>183</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>326</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
@@ -4309,27 +4422,31 @@
         <v>28</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>324</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>82</v>
@@ -4344,30 +4461,31 @@
         <v>160</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>323</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>9</v>
@@ -4388,18 +4506,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>82</v>
@@ -4411,33 +4530,34 @@
         <v>28</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>321</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>10</v>
@@ -4446,33 +4566,34 @@
         <v>145</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>320</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>41</v>
@@ -4484,27 +4605,28 @@
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>319</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>8</v>
@@ -4513,33 +4635,34 @@
         <v>115</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>318</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>8</v>
@@ -4554,33 +4677,34 @@
         <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J93" t="s" s="0">
         <v>187</v>
@@ -4589,27 +4713,28 @@
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>8</v>
@@ -4621,19 +4746,20 @@
         <v>33</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
@@ -4656,27 +4782,39 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>12</v>
@@ -4688,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
@@ -4697,21 +4835,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>45</v>
@@ -4726,19 +4864,20 @@
         <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>309</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
@@ -4758,7 +4897,7 @@
         <v>148</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
@@ -4767,18 +4906,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G105" t="s" s="0">
         <v>82</v>
@@ -4787,27 +4926,27 @@
         <v>43</v>
       </c>
       <c r="I105" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J105" t="s" s="0">
         <v>114</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -4822,7 +4961,7 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
@@ -4831,24 +4970,24 @@
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G127" t="s" s="0">
         <v>82</v>
@@ -4860,33 +4999,33 @@
         <v>31</v>
       </c>
       <c r="J127" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K127" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>45</v>
@@ -4895,7 +5034,7 @@
         <v>141</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>157</v>
@@ -4907,53 +5046,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K129" t="s" s="0">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G130" t="s" s="0">
         <v>82</v>
@@ -4968,42 +5107,42 @@
         <v>103</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K131" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
@@ -5012,7 +5151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
@@ -5032,27 +5171,27 @@
         <v>9</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K132" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
@@ -5082,21 +5221,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>9</v>
@@ -5111,27 +5250,27 @@
         <v>147</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>8</v>
@@ -5149,36 +5288,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J136" t="s" s="0">
         <v>114</v>
       </c>
       <c r="K136" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M136" t="s" s="0">
         <v>19</v>
@@ -5197,18 +5336,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.85546875"/>
+    <col min="7" max="7" customWidth="true" width="15.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -5219,7 +5358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12500</v>
       </c>
@@ -5230,7 +5369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5241,7 +5380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5252,7 +5391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>19000</v>
       </c>
@@ -5263,7 +5402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>26000</v>
       </c>
@@ -5274,7 +5413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17500</v>
       </c>
@@ -5285,7 +5424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>21000</v>
       </c>
@@ -5296,7 +5435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>31000</v>
       </c>
@@ -5307,7 +5446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>12500</v>
       </c>
@@ -5318,7 +5457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>14500</v>
       </c>
@@ -5329,7 +5468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>20500</v>
       </c>
@@ -5340,7 +5479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>16500</v>
       </c>
@@ -5351,7 +5490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>11000</v>
       </c>
@@ -5362,7 +5501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>31000</v>
       </c>
@@ -5386,13 +5525,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
@@ -5400,7 +5539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -5408,7 +5547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -5416,7 +5555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -5424,7 +5563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -5432,7 +5571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -5440,7 +5579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -5448,7 +5587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -5456,7 +5595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -5464,7 +5603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -5472,7 +5611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -5480,7 +5619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -5488,7 +5627,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -5496,7 +5635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -5504,7 +5643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -5512,7 +5651,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -5520,7 +5659,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -5528,7 +5667,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -5536,7 +5675,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -5557,13 +5696,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.42578125"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125"/>
+    <col min="6" max="6" customWidth="true" width="41.44140625"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -5577,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -5591,7 +5730,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5605,7 +5744,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5619,7 +5758,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -5633,7 +5772,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -5647,7 +5786,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -5661,7 +5800,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -5675,7 +5814,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -5683,13 +5822,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -5697,13 +5836,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -5711,7 +5850,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -5719,7 +5858,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -5727,7 +5866,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -5735,7 +5874,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -5743,7 +5882,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -5751,7 +5890,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -5759,7 +5898,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -5767,7 +5906,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -5775,7 +5914,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -5783,7 +5922,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -5791,7 +5930,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -5799,7 +5938,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -5807,7 +5946,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -5815,7 +5954,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -5823,7 +5962,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -5831,7 +5970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -5839,7 +5978,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -5847,7 +5986,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -5855,7 +5994,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -5863,7 +6002,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -5871,7 +6010,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -5879,7 +6018,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -5887,7 +6026,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -5895,7 +6034,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -5903,7 +6042,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -5911,7 +6050,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -5919,7 +6058,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -5927,7 +6066,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -5935,7 +6074,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -5943,7 +6082,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -5951,7 +6090,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -5959,7 +6098,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -5967,7 +6106,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -5975,7 +6114,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -5983,7 +6122,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -5991,7 +6130,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -5999,7 +6138,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -6007,7 +6146,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -6015,7 +6154,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="0">
         <v>60000</v>
       </c>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="427">
   <si>
     <t>Nombre</t>
   </si>
@@ -1308,19 +1308,7 @@
     <t>0945</t>
   </si>
   <si>
-    <t>9548416N</t>
-  </si>
-  <si>
-    <t>9548150E</t>
-  </si>
-  <si>
-    <t>9548295Y</t>
-  </si>
-  <si>
-    <t>9785530L</t>
-  </si>
-  <si>
-    <t>9548827D</t>
+    <t>09548416N</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2435,7 @@
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
@@ -2951,7 +2939,7 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
@@ -3095,7 +3083,7 @@
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>429</v>
+        <v>146</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
@@ -3854,7 +3842,7 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0FEC0-58A4-474F-9FC3-12145EFA74A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="422">
   <si>
     <t>Nombre</t>
   </si>
@@ -966,15 +966,9 @@
     <t>99558741836555551120</t>
   </si>
   <si>
-    <t>09548150L</t>
-  </si>
-  <si>
     <t>32541112811220000588</t>
   </si>
   <si>
-    <t>09548416X</t>
-  </si>
-  <si>
     <t>12548521518742146695</t>
   </si>
   <si>
@@ -1044,9 +1038,6 @@
     <t>65168874641561561500</t>
   </si>
   <si>
-    <t>09548295P</t>
-  </si>
-  <si>
     <t>36952365020014425254</t>
   </si>
   <si>
@@ -1089,9 +1080,6 @@
     <t>36585214290025478551</t>
   </si>
   <si>
-    <t>09785530J</t>
-  </si>
-  <si>
     <t>21651651812511133551</t>
   </si>
   <si>
@@ -1126,9 +1114,6 @@
   </si>
   <si>
     <t>X8996448K</t>
-  </si>
-  <si>
-    <t>09548827E</t>
   </si>
   <si>
     <t>66552211148855332200</t>
@@ -1315,7 +1300,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1723,22 +1707,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875"/>
-    <col min="12" max="12" style="2" width="11.44140625"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1747,76 +1731,75 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s" s="0">
-        <v>417</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="N1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>406</v>
+      </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>136</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -1826,2426 +1809,2332 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>405</v>
+      </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>310</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>309</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>191</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>140</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>218</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>404</v>
+      </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>304</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>242</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>403</v>
+      </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>308</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>307</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>402</v>
+      </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>310</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>309</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>224</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>231</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>223</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>395</v>
+      </c>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>114</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>228</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>208</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>401</v>
+      </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>308</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>307</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>114</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>184</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>400</v>
+      </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>304</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>117</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>304</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>82</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>260</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>398</v>
+      </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>306</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>305</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>249</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>203</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>248</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="M11" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="M11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>397</v>
+      </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>308</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>307</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>127</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>258</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M12" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>396</v>
+      </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>310</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>309</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>246</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>245</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>389</v>
+      </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>306</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>305</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M14" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="M14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>299</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>394</v>
+      </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>309</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>393</v>
+      </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>310</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>309</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>392</v>
+      </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>306</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>305</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>144</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="M18" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="M18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>293</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>391</v>
+      </c>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>124</v>
       </c>
-      <c r="J19" t="s" s="0">
+      <c r="J19" t="s">
         <v>144</v>
       </c>
-      <c r="K19" t="s" s="0">
+      <c r="K19" t="s">
         <v>162</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M19" t="s" s="0">
+      <c r="M19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>390</v>
+      </c>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="I20" t="s" s="0">
+      <c r="I20" t="s">
         <v>124</v>
       </c>
-      <c r="J20" t="s" s="0">
+      <c r="J20" t="s">
         <v>130</v>
       </c>
-      <c r="K20" t="s" s="0">
+      <c r="K20" t="s">
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M20" t="s" s="0">
+      <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>389</v>
+      </c>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>83</v>
       </c>
-      <c r="H21" t="s" s="0">
+      <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="s" s="0">
+      <c r="I21" t="s">
         <v>235</v>
       </c>
-      <c r="J21" t="s" s="0">
+      <c r="J21" t="s">
         <v>95</v>
       </c>
-      <c r="K21" t="s" s="0">
+      <c r="K21" t="s">
         <v>139</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M21" t="s" s="0">
+      <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>387</v>
+      </c>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>83</v>
       </c>
-      <c r="H22" t="s" s="0">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="s" s="0">
+      <c r="I22" t="s">
         <v>153</v>
       </c>
-      <c r="K22" t="s" s="0">
+      <c r="K22" t="s">
         <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s" s="0">
+      <c r="M22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>308</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>307</v>
       </c>
-      <c r="H23" t="s" s="0">
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="I23" t="s" s="0">
+      <c r="I23" t="s">
         <v>252</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="M23" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>385</v>
+      </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>310</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s">
         <v>309</v>
       </c>
-      <c r="H24" t="s" s="0">
+      <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="I24" t="s" s="0">
+      <c r="I24" t="s">
         <v>256</v>
       </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s">
         <v>230</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M24" t="s" s="0">
+      <c r="M24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>384</v>
+      </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>310</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>309</v>
       </c>
-      <c r="H25" t="s" s="0">
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" t="s" s="0">
+      <c r="I25" t="s">
         <v>262</v>
       </c>
-      <c r="K25" t="s" s="0">
+      <c r="K25" t="s">
         <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s" s="0">
+      <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>383</v>
+      </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>310</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>309</v>
       </c>
-      <c r="H27" t="s" s="0">
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="I27" t="s" s="0">
+      <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="J27" t="s" s="0">
+      <c r="J27" t="s">
         <v>30</v>
       </c>
-      <c r="K27" t="s" s="0">
-        <v>412</v>
+      <c r="K27" t="s">
+        <v>407</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M27" t="s" s="0">
+      <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>382</v>
+      </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>310</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>309</v>
       </c>
-      <c r="H28" t="s" s="0">
+      <c r="H28" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s" s="0">
+      <c r="I28" t="s">
         <v>28</v>
       </c>
-      <c r="J28" t="s" s="0">
+      <c r="J28" t="s">
         <v>140</v>
       </c>
-      <c r="K28" t="s" s="0">
+      <c r="K28" t="s">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M28" t="s" s="0">
+      <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>381</v>
+      </c>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>83</v>
       </c>
-      <c r="H29" t="s" s="0">
+      <c r="H29" t="s">
         <v>42</v>
       </c>
-      <c r="I29" t="s" s="0">
-        <v>413</v>
-      </c>
-      <c r="J29" t="s" s="0">
+      <c r="I29" t="s">
+        <v>408</v>
+      </c>
+      <c r="J29" t="s">
         <v>242</v>
       </c>
-      <c r="K29" t="s" s="0">
-        <v>414</v>
+      <c r="K29" t="s">
+        <v>409</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M29" t="s" s="0">
+      <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>380</v>
+      </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>308</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>307</v>
       </c>
-      <c r="H30" t="s" s="0">
+      <c r="H30" t="s">
         <v>38</v>
       </c>
-      <c r="I30" t="s" s="0">
+      <c r="I30" t="s">
         <v>95</v>
       </c>
-      <c r="J30" t="s" s="0">
+      <c r="J30" t="s">
         <v>106</v>
       </c>
-      <c r="K30" t="s" s="0">
+      <c r="K30" t="s">
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M30" t="s" s="0">
+      <c r="M30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>379</v>
+      </c>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>83</v>
       </c>
-      <c r="H31" t="s" s="0">
+      <c r="H31" t="s">
         <v>56</v>
       </c>
-      <c r="I31" t="s" s="0">
+      <c r="I31" t="s">
         <v>279</v>
       </c>
-      <c r="J31" t="s" s="0">
+      <c r="J31" t="s">
         <v>231</v>
       </c>
-      <c r="K31" t="s" s="0">
+      <c r="K31" t="s">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M31" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>378</v>
+      </c>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>83</v>
       </c>
-      <c r="H32" t="s" s="0">
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="J32" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="K32" t="s" s="0">
+      <c r="I32" t="s">
+        <v>410</v>
+      </c>
+      <c r="J32" t="s">
+        <v>410</v>
+      </c>
+      <c r="K32" t="s">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M32" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>374</v>
+      </c>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" t="s" s="0">
+      <c r="G36" t="s">
         <v>83</v>
       </c>
-      <c r="H36" t="s" s="0">
+      <c r="H36" t="s">
         <v>44</v>
       </c>
-      <c r="I36" t="s" s="0">
+      <c r="I36" t="s">
         <v>273</v>
       </c>
-      <c r="J36" t="s" s="0">
+      <c r="J36" t="s">
         <v>203</v>
       </c>
-      <c r="K36" t="s" s="0">
+      <c r="K36" t="s">
         <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M36" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="M36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>373</v>
+      </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="F37" t="s">
         <v>306</v>
       </c>
-      <c r="G37" t="s" s="0">
+      <c r="G37" t="s">
         <v>305</v>
       </c>
-      <c r="H37" t="s" s="0">
+      <c r="H37" t="s">
         <v>39</v>
       </c>
-      <c r="I37" t="s" s="0">
+      <c r="I37" t="s">
         <v>33</v>
       </c>
-      <c r="J37" t="s" s="0">
+      <c r="J37" t="s">
         <v>127</v>
       </c>
-      <c r="K37" t="s" s="0">
+      <c r="K37" t="s">
         <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M37" t="s" s="0">
+      <c r="M37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>372</v>
+      </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F38" t="s">
         <v>304</v>
       </c>
-      <c r="G38" t="s" s="0">
+      <c r="G38" t="s">
         <v>82</v>
       </c>
-      <c r="H38" t="s" s="0">
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="I38" t="s" s="0">
+      <c r="I38" t="s">
         <v>26</v>
       </c>
-      <c r="J38" t="s" s="0">
+      <c r="J38" t="s">
         <v>27</v>
       </c>
-      <c r="K38" t="s" s="0">
+      <c r="K38" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="M38" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="M38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>371</v>
+      </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s" s="0">
+      <c r="F39" t="s">
         <v>304</v>
       </c>
-      <c r="G39" t="s" s="0">
+      <c r="G39" t="s">
         <v>82</v>
       </c>
-      <c r="H39" t="s" s="0">
+      <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="I39" t="s" s="0">
+      <c r="I39" t="s">
         <v>149</v>
       </c>
-      <c r="J39" t="s" s="0">
+      <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K39" t="s" s="0">
+      <c r="K39" t="s">
         <v>94</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s" s="0">
+      <c r="M39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>370</v>
+      </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="F40" t="s">
         <v>306</v>
       </c>
-      <c r="G40" t="s" s="0">
+      <c r="G40" t="s">
         <v>305</v>
       </c>
-      <c r="H40" t="s" s="0">
+      <c r="H40" t="s">
         <v>44</v>
       </c>
-      <c r="I40" t="s" s="0">
+      <c r="I40" t="s">
         <v>115</v>
       </c>
-      <c r="J40" t="s" s="0">
+      <c r="J40" t="s">
         <v>190</v>
       </c>
-      <c r="K40" t="s" s="0">
+      <c r="K40" t="s">
         <v>170</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M40" t="s" s="0">
+      <c r="M40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>369</v>
+      </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="F41" t="s">
         <v>304</v>
       </c>
-      <c r="G41" t="s" s="0">
+      <c r="G41" t="s">
         <v>82</v>
       </c>
-      <c r="H41" t="s" s="0">
+      <c r="H41" t="s">
         <v>10</v>
       </c>
-      <c r="I41" t="s" s="0">
+      <c r="I41" t="s">
         <v>115</v>
       </c>
-      <c r="J41" t="s" s="0">
+      <c r="J41" t="s">
         <v>34</v>
       </c>
-      <c r="K41" t="s" s="0">
+      <c r="K41" t="s">
         <v>164</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M41" t="s" s="0">
+      <c r="M41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>368</v>
+      </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s" s="0">
+      <c r="F42" t="s">
         <v>304</v>
       </c>
-      <c r="G42" t="s" s="0">
+      <c r="G42" t="s">
         <v>82</v>
       </c>
-      <c r="H42" t="s" s="0">
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="I42" t="s" s="0">
+      <c r="I42" t="s">
         <v>194</v>
       </c>
-      <c r="J42" t="s" s="0">
+      <c r="J42" t="s">
         <v>34</v>
       </c>
-      <c r="K42" t="s" s="0">
+      <c r="K42" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M42" t="s" s="0">
+      <c r="M42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>366</v>
+      </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s" s="0">
+      <c r="F43" t="s">
         <v>304</v>
       </c>
-      <c r="G43" t="s" s="0">
+      <c r="G43" t="s">
         <v>82</v>
       </c>
-      <c r="H43" t="s" s="0">
+      <c r="H43" t="s">
         <v>38</v>
       </c>
-      <c r="I43" t="s" s="0">
+      <c r="I43" t="s">
         <v>111</v>
       </c>
-      <c r="J43" t="s" s="0">
+      <c r="J43" t="s">
         <v>144</v>
       </c>
-      <c r="K43" t="s" s="0">
+      <c r="K43" t="s">
         <v>206</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M43" t="s" s="0">
+      <c r="M43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>365</v>
+      </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s" s="0">
+      <c r="F44" t="s">
         <v>308</v>
       </c>
-      <c r="G44" t="s" s="0">
+      <c r="G44" t="s">
         <v>307</v>
       </c>
-      <c r="H44" t="s" s="0">
+      <c r="H44" t="s">
         <v>10</v>
       </c>
-      <c r="I44" t="s" s="0">
+      <c r="I44" t="s">
         <v>111</v>
       </c>
-      <c r="J44" t="s" s="0">
+      <c r="J44" t="s">
         <v>144</v>
       </c>
-      <c r="K44" t="s" s="0">
+      <c r="K44" t="s">
         <v>179</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M44" t="s" s="0">
+      <c r="M44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>364</v>
+      </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s" s="0">
+      <c r="F45" t="s">
         <v>310</v>
       </c>
-      <c r="G45" t="s" s="0">
+      <c r="G45" t="s">
         <v>309</v>
       </c>
-      <c r="H45" t="s" s="0">
+      <c r="H45" t="s">
         <v>10</v>
       </c>
-      <c r="I45" t="s" s="0">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="J45" t="s" s="0">
+      <c r="J45" t="s">
         <v>130</v>
       </c>
-      <c r="K45" t="s" s="0">
+      <c r="K45" t="s">
         <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M45" t="s" s="0">
+      <c r="M45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>363</v>
+      </c>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" t="s" s="0">
+      <c r="G46" t="s">
         <v>83</v>
       </c>
-      <c r="H46" t="s" s="0">
+      <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" t="s" s="0">
+      <c r="I46" t="s">
         <v>165</v>
       </c>
-      <c r="J46" t="s" s="0">
+      <c r="J46" t="s">
         <v>95</v>
       </c>
-      <c r="K46" t="s" s="0">
+      <c r="K46" t="s">
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M46" t="s" s="0">
+      <c r="M46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>362</v>
+      </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s" s="0">
+      <c r="F47" t="s">
         <v>304</v>
       </c>
-      <c r="G47" t="s" s="0">
+      <c r="G47" t="s">
         <v>82</v>
       </c>
-      <c r="H47" t="s" s="0">
+      <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="I47" t="s" s="0">
+      <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" t="s" s="0">
+      <c r="J47" t="s">
         <v>28</v>
       </c>
-      <c r="K47" t="s" s="0">
+      <c r="K47" t="s">
         <v>155</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M47" t="s" s="0">
+      <c r="M47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="2"/>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s" s="0">
+      <c r="F48" t="s">
         <v>310</v>
       </c>
-      <c r="G48" t="s" s="0">
+      <c r="G48" t="s">
         <v>309</v>
       </c>
-      <c r="H48" t="s" s="0">
+      <c r="H48" t="s">
         <v>44</v>
       </c>
-      <c r="I48" t="s" s="0">
+      <c r="I48" t="s">
         <v>167</v>
       </c>
-      <c r="J48" t="s" s="0">
+      <c r="J48" t="s">
         <v>28</v>
       </c>
-      <c r="K48" t="s" s="0">
+      <c r="K48" t="s">
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M48" t="s" s="0">
+      <c r="M48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>360</v>
+      </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s" s="0">
+      <c r="F49" t="s">
         <v>304</v>
       </c>
-      <c r="G49" t="s" s="0">
+      <c r="G49" t="s">
         <v>82</v>
       </c>
-      <c r="H49" t="s" s="0">
+      <c r="H49" t="s">
         <v>44</v>
       </c>
-      <c r="I49" t="s" s="0">
+      <c r="I49" t="s">
         <v>115</v>
       </c>
-      <c r="J49" t="s" s="0">
+      <c r="J49" t="s">
         <v>100</v>
       </c>
-      <c r="K49" t="s" s="0">
+      <c r="K49" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M49" t="s" s="0">
+      <c r="M49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>359</v>
+      </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s" s="0">
+      <c r="F50" t="s">
         <v>67</v>
       </c>
-      <c r="G50" t="s" s="0">
+      <c r="G50" t="s">
         <v>83</v>
       </c>
-      <c r="H50" t="s" s="0">
+      <c r="H50" t="s">
         <v>9</v>
       </c>
-      <c r="I50" t="s" s="0">
+      <c r="I50" t="s">
         <v>216</v>
       </c>
-      <c r="J50" t="s" s="0">
+      <c r="J50" t="s">
         <v>176</v>
       </c>
-      <c r="K50" t="s" s="0">
+      <c r="K50" t="s">
         <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M50" t="s" s="0">
+      <c r="M50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>357</v>
+      </c>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>18</v>
       </c>
-      <c r="G51" t="s" s="0">
+      <c r="G51" t="s">
         <v>83</v>
       </c>
-      <c r="H51" t="s" s="0">
+      <c r="H51" t="s">
         <v>8</v>
       </c>
-      <c r="I51" t="s" s="0">
+      <c r="I51" t="s">
         <v>216</v>
       </c>
-      <c r="J51" t="s" s="0">
+      <c r="J51" t="s">
         <v>124</v>
       </c>
-      <c r="K51" t="s" s="0">
+      <c r="K51" t="s">
         <v>198</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M51" t="s" s="0">
+      <c r="M51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>299</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>356</v>
+      </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s" s="0">
+      <c r="F52" t="s">
         <v>308</v>
       </c>
-      <c r="G52" t="s" s="0">
+      <c r="G52" t="s">
         <v>307</v>
       </c>
-      <c r="H52" t="s" s="0">
+      <c r="H52" t="s">
         <v>11</v>
       </c>
-      <c r="I52" t="s" s="0">
+      <c r="I52" t="s">
         <v>27</v>
       </c>
-      <c r="J52" t="s" s="0">
+      <c r="J52" t="s">
         <v>124</v>
       </c>
-      <c r="K52" t="s" s="0">
+      <c r="K52" t="s">
         <v>134</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M52" t="s" s="0">
+      <c r="M52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>355</v>
+      </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s" s="0">
+      <c r="F53" t="s">
         <v>308</v>
       </c>
-      <c r="G53" t="s" s="0">
+      <c r="G53" t="s">
         <v>307</v>
       </c>
-      <c r="H53" t="s" s="0">
+      <c r="H53" t="s">
         <v>9</v>
       </c>
-      <c r="I53" t="s" s="0">
+      <c r="I53" t="s">
         <v>28</v>
       </c>
-      <c r="J53" t="s" s="0">
+      <c r="J53" t="s">
         <v>78</v>
       </c>
-      <c r="K53" t="s" s="0">
+      <c r="K53" t="s">
         <v>218</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M53" t="s" s="0">
+      <c r="M53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>354</v>
+      </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s" s="0">
+      <c r="F54" t="s">
         <v>308</v>
       </c>
-      <c r="G54" t="s" s="0">
+      <c r="G54" t="s">
         <v>307</v>
       </c>
-      <c r="H54" t="s" s="0">
+      <c r="H54" t="s">
         <v>9</v>
       </c>
-      <c r="I54" t="s" s="0">
+      <c r="I54" t="s">
         <v>80</v>
       </c>
-      <c r="J54" t="s" s="0">
+      <c r="J54" t="s">
         <v>161</v>
       </c>
-      <c r="K54" t="s" s="0">
+      <c r="K54" t="s">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>353</v>
+      </c>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s" s="0">
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" t="s" s="0">
+      <c r="G55" t="s">
         <v>83</v>
       </c>
-      <c r="H55" t="s" s="0">
+      <c r="H55" t="s">
         <v>41</v>
       </c>
-      <c r="I55" t="s" s="0">
+      <c r="I55" t="s">
         <v>165</v>
       </c>
-      <c r="J55" t="s" s="0">
+      <c r="J55" t="s">
         <v>123</v>
       </c>
-      <c r="K55" t="s" s="0">
+      <c r="K55" t="s">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M55" t="s" s="0">
+      <c r="M55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>337</v>
+      </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s" s="0">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="G60" t="s" s="0">
+      <c r="G60" t="s">
         <v>309</v>
       </c>
-      <c r="H60" t="s" s="0">
+      <c r="H60" t="s">
         <v>38</v>
       </c>
-      <c r="I60" t="s" s="0">
+      <c r="I60" t="s">
         <v>79</v>
       </c>
-      <c r="J60" t="s" s="0">
+      <c r="J60" t="s">
         <v>233</v>
       </c>
-      <c r="K60" t="s" s="0">
+      <c r="K60" t="s">
         <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M60" t="s" s="0">
+      <c r="M60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>349</v>
+      </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s" s="0">
+      <c r="F61" t="s">
         <v>306</v>
       </c>
-      <c r="G61" t="s" s="0">
+      <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="H61" t="s" s="0">
+      <c r="H61" t="s">
         <v>56</v>
       </c>
-      <c r="I61" t="s" s="0">
+      <c r="I61" t="s">
         <v>240</v>
       </c>
-      <c r="J61" t="s" s="0">
+      <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="K61" t="s" s="0">
-        <v>416</v>
+      <c r="K61" t="s">
+        <v>411</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M61" t="s" s="0">
+      <c r="M61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>348</v>
+      </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s" s="0">
+      <c r="F62" t="s">
         <v>304</v>
       </c>
-      <c r="G62" t="s" s="0">
+      <c r="G62" t="s">
         <v>82</v>
       </c>
-      <c r="H62" t="s" s="0">
+      <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" t="s" s="0">
+      <c r="I62" t="s">
         <v>115</v>
       </c>
-      <c r="J62" t="s" s="0">
+      <c r="J62" t="s">
         <v>167</v>
       </c>
-      <c r="K62" t="s" s="0">
+      <c r="K62" t="s">
         <v>258</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="M62" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="M62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>347</v>
+      </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s" s="0">
+      <c r="F63" t="s">
         <v>304</v>
       </c>
-      <c r="G63" t="s" s="0">
+      <c r="G63" t="s">
         <v>82</v>
       </c>
-      <c r="H63" t="s" s="0">
+      <c r="H63" t="s">
         <v>9</v>
       </c>
-      <c r="I63" t="s" s="0">
+      <c r="I63" t="s">
         <v>132</v>
       </c>
-      <c r="J63" t="s" s="0">
+      <c r="J63" t="s">
         <v>183</v>
       </c>
-      <c r="K63" t="s" s="0">
+      <c r="K63" t="s">
         <v>245</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s" s="0">
+      <c r="M63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>346</v>
+      </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s" s="0">
+      <c r="F64" t="s">
         <v>308</v>
       </c>
-      <c r="G64" t="s" s="0">
+      <c r="G64" t="s">
         <v>307</v>
       </c>
-      <c r="H64" t="s" s="0">
+      <c r="H64" t="s">
         <v>10</v>
       </c>
-      <c r="I64" t="s" s="0">
+      <c r="I64" t="s">
         <v>221</v>
       </c>
-      <c r="K64" t="s" s="0">
+      <c r="K64" t="s">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M64" t="s" s="0">
+      <c r="M64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>345</v>
+      </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s" s="0">
+      <c r="F65" t="s">
         <v>308</v>
       </c>
-      <c r="G65" t="s" s="0">
+      <c r="G65" t="s">
         <v>307</v>
       </c>
-      <c r="H65" t="s" s="0">
+      <c r="H65" t="s">
         <v>41</v>
       </c>
-      <c r="I65" t="s" s="0">
+      <c r="I65" t="s">
         <v>29</v>
       </c>
-      <c r="K65" t="s" s="0">
+      <c r="K65" t="s">
         <v>69</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M65" t="s" s="0">
+      <c r="M65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2"/>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s" s="0">
+      <c r="F66" t="s">
         <v>304</v>
       </c>
-      <c r="G66" t="s" s="0">
+      <c r="G66" t="s">
         <v>82</v>
       </c>
-      <c r="H66" t="s" s="0">
+      <c r="H66" t="s">
         <v>44</v>
       </c>
-      <c r="I66" t="s" s="0">
+      <c r="I66" t="s">
         <v>238</v>
       </c>
-      <c r="K66" t="s" s="0">
+      <c r="K66" t="s">
         <v>283</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M66" t="s" s="0">
+      <c r="M66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>342</v>
+      </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s" s="0">
+      <c r="F67" t="s">
         <v>304</v>
       </c>
-      <c r="G67" t="s" s="0">
+      <c r="G67" t="s">
         <v>82</v>
       </c>
-      <c r="H67" t="s" s="0">
+      <c r="H67" t="s">
         <v>39</v>
       </c>
-      <c r="I67" t="s" s="0">
+      <c r="I67" t="s">
         <v>107</v>
       </c>
-      <c r="J67" t="s" s="0">
+      <c r="J67" t="s">
         <v>28</v>
       </c>
-      <c r="K67" t="s" s="0">
+      <c r="K67" t="s">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M67" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="M67" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>341</v>
+      </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s" s="0">
+      <c r="F68" t="s">
         <v>306</v>
       </c>
-      <c r="G68" t="s" s="0">
+      <c r="G68" t="s">
         <v>305</v>
       </c>
-      <c r="H68" t="s" s="0">
+      <c r="H68" t="s">
         <v>9</v>
       </c>
-      <c r="I68" t="s" s="0">
+      <c r="I68" t="s">
         <v>16</v>
       </c>
-      <c r="J68" t="s" s="0">
+      <c r="J68" t="s">
         <v>28</v>
       </c>
-      <c r="K68" t="s" s="0">
+      <c r="K68" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="M68" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="M68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>340</v>
+      </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s" s="0">
+      <c r="F69" t="s">
         <v>306</v>
       </c>
-      <c r="G69" t="s" s="0">
+      <c r="G69" t="s">
         <v>305</v>
       </c>
-      <c r="H69" t="s" s="0">
+      <c r="H69" t="s">
         <v>11</v>
       </c>
-      <c r="I69" t="s" s="0">
+      <c r="I69" t="s">
         <v>28</v>
       </c>
-      <c r="J69" t="s" s="0">
+      <c r="J69" t="s">
         <v>100</v>
       </c>
-      <c r="K69" t="s" s="0">
+      <c r="K69" t="s">
         <v>162</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M69" t="s" s="0">
+      <c r="M69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>339</v>
+      </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s" s="0">
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="G70" t="s" s="0">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="H70" t="s" s="0">
+      <c r="H70" t="s">
         <v>44</v>
       </c>
-      <c r="I70" t="s" s="0">
+      <c r="I70" t="s">
         <v>184</v>
       </c>
-      <c r="J70" t="s" s="0">
+      <c r="J70" t="s">
         <v>176</v>
       </c>
-      <c r="K70" t="s" s="0">
+      <c r="K70" t="s">
         <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="M70" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="M70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" t="s" s="0">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>337</v>
+      </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s" s="0">
+      <c r="F71" t="s">
         <v>306</v>
       </c>
-      <c r="G71" t="s" s="0">
+      <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="H71" t="s" s="0">
+      <c r="H71" t="s">
         <v>10</v>
       </c>
-      <c r="I71" t="s" s="0">
+      <c r="I71" t="s">
         <v>184</v>
       </c>
-      <c r="J71" t="s" s="0">
+      <c r="J71" t="s">
         <v>124</v>
       </c>
-      <c r="K71" t="s" s="0">
+      <c r="K71" t="s">
         <v>208</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M71" t="s" s="0">
+      <c r="M71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s" s="0">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>303</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>336</v>
+      </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s" s="0">
+      <c r="F72" t="s">
         <v>304</v>
       </c>
-      <c r="G72" t="s" s="0">
+      <c r="G72" t="s">
         <v>82</v>
       </c>
-      <c r="H72" t="s" s="0">
+      <c r="H72" t="s">
         <v>39</v>
       </c>
-      <c r="I72" t="s" s="0">
+      <c r="I72" t="s">
         <v>31</v>
       </c>
-      <c r="J72" t="s" s="0">
+      <c r="J72" t="s">
         <v>124</v>
       </c>
-      <c r="K72" t="s" s="0">
+      <c r="K72" t="s">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M72" t="s" s="0">
+      <c r="M72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" t="s" s="0">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>335</v>
+      </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s" s="0">
+      <c r="F73" t="s">
         <v>310</v>
       </c>
-      <c r="G73" t="s" s="0">
+      <c r="G73" t="s">
         <v>309</v>
       </c>
-      <c r="H73" t="s" s="0">
+      <c r="H73" t="s">
         <v>38</v>
       </c>
-      <c r="I73" t="s" s="0">
+      <c r="I73" t="s">
         <v>141</v>
       </c>
-      <c r="J73" t="s" s="0">
+      <c r="J73" t="s">
         <v>78</v>
       </c>
-      <c r="K73" t="s" s="0">
+      <c r="K73" t="s">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M73" t="s" s="0">
+      <c r="M73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" t="s" s="0">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>334</v>
+      </c>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s" s="0">
+      <c r="F74" t="s">
         <v>18</v>
       </c>
-      <c r="G74" t="s" s="0">
+      <c r="G74" t="s">
         <v>83</v>
       </c>
-      <c r="H74" t="s" s="0">
+      <c r="H74" t="s">
         <v>10</v>
       </c>
-      <c r="I74" t="s" s="0">
+      <c r="I74" t="s">
         <v>243</v>
       </c>
-      <c r="J74" t="s" s="0">
+      <c r="J74" t="s">
         <v>161</v>
       </c>
-      <c r="K74" t="s" s="0">
+      <c r="K74" t="s">
         <v>234</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M74" t="s" s="0">
+      <c r="M74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" t="s" s="0">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>333</v>
+      </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s" s="0">
+      <c r="F75" t="s">
         <v>304</v>
       </c>
-      <c r="G75" t="s" s="0">
+      <c r="G75" t="s">
         <v>82</v>
       </c>
-      <c r="H75" t="s" s="0">
+      <c r="H75" t="s">
         <v>10</v>
       </c>
-      <c r="I75" t="s" s="0">
+      <c r="I75" t="s">
         <v>107</v>
       </c>
-      <c r="J75" t="s" s="0">
+      <c r="J75" t="s">
         <v>123</v>
       </c>
-      <c r="K75" t="s" s="0">
+      <c r="K75" t="s">
         <v>151</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M75" t="s" s="0">
+      <c r="M75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" t="s" s="0">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>295</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>332</v>
+      </c>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s" s="0">
+      <c r="F76" t="s">
         <v>18</v>
       </c>
-      <c r="G76" t="s" s="0">
+      <c r="G76" t="s">
         <v>83</v>
       </c>
-      <c r="H76" t="s" s="0">
+      <c r="H76" t="s">
         <v>11</v>
       </c>
-      <c r="I76" t="s" s="0">
+      <c r="I76" t="s">
         <v>214</v>
       </c>
-      <c r="J76" t="s" s="0">
+      <c r="J76" t="s">
         <v>131</v>
       </c>
-      <c r="K76" t="s" s="0">
+      <c r="K76" t="s">
         <v>250</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M76" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="M76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" t="s" s="0">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="2"/>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s" s="0">
+      <c r="F77" t="s">
         <v>310</v>
       </c>
-      <c r="G77" t="s" s="0">
+      <c r="G77" t="s">
         <v>309</v>
       </c>
-      <c r="H77" t="s" s="0">
+      <c r="H77" t="s">
         <v>44</v>
       </c>
-      <c r="I77" t="s" s="0">
+      <c r="I77" t="s">
         <v>229</v>
       </c>
-      <c r="J77" t="s" s="0">
+      <c r="J77" t="s">
         <v>220</v>
       </c>
-      <c r="K77" t="s" s="0">
+      <c r="K77" t="s">
         <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M77" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="M77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" t="s" s="0">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>331</v>
+      </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s" s="0">
+      <c r="F79" t="s">
         <v>304</v>
       </c>
-      <c r="G79" t="s" s="0">
+      <c r="G79" t="s">
         <v>82</v>
       </c>
-      <c r="H79" t="s" s="0">
+      <c r="H79" t="s">
         <v>44</v>
       </c>
-      <c r="I79" t="s" s="0">
+      <c r="I79" t="s">
         <v>118</v>
       </c>
-      <c r="J79" t="s" s="0">
+      <c r="J79" t="s">
         <v>237</v>
       </c>
-      <c r="K79" t="s" s="0">
+      <c r="K79" t="s">
         <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M79" t="s" s="0">
+      <c r="M79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s" s="0">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4254,105 +4143,103 @@
       <c r="E80" s="1">
         <v>43009</v>
       </c>
-      <c r="F80" t="s" s="0">
+      <c r="F80" t="s">
         <v>304</v>
       </c>
-      <c r="G80" t="s" s="0">
+      <c r="G80" t="s">
         <v>82</v>
       </c>
-      <c r="H80" t="s" s="0">
+      <c r="H80" t="s">
         <v>12</v>
       </c>
-      <c r="I80" t="s" s="0">
+      <c r="I80" t="s">
         <v>28</v>
       </c>
-      <c r="J80" t="s" s="0">
+      <c r="J80" t="s">
         <v>233</v>
       </c>
-      <c r="K80" t="s" s="0">
+      <c r="K80" t="s">
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M80" t="s" s="0">
+      <c r="M80" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s" s="0">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>330</v>
+      </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s" s="0">
+      <c r="F81" t="s">
         <v>308</v>
       </c>
-      <c r="G81" t="s" s="0">
+      <c r="G81" t="s">
         <v>307</v>
       </c>
-      <c r="H81" t="s" s="0">
+      <c r="H81" t="s">
         <v>45</v>
       </c>
-      <c r="I81" t="s" s="0">
+      <c r="I81" t="s">
         <v>203</v>
       </c>
-      <c r="J81" t="s" s="0">
+      <c r="J81" t="s">
         <v>17</v>
       </c>
-      <c r="K81" t="s" s="0">
+      <c r="K81" t="s">
         <v>186</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M81" t="s" s="0">
+      <c r="M81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s" s="0">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>329</v>
+      </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s" s="0">
+      <c r="F82" t="s">
         <v>304</v>
       </c>
-      <c r="G82" t="s" s="0">
+      <c r="G82" t="s">
         <v>82</v>
       </c>
-      <c r="H82" t="s" s="0">
+      <c r="H82" t="s">
         <v>39</v>
       </c>
-      <c r="I82" t="s" s="0">
+      <c r="I82" t="s">
         <v>135</v>
       </c>
-      <c r="J82" t="s" s="0">
+      <c r="J82" t="s">
         <v>167</v>
       </c>
-      <c r="K82" t="s" s="0">
+      <c r="K82" t="s">
         <v>169</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M82" t="s" s="0">
+      <c r="M82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s" s="0">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>301</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -4361,435 +4248,409 @@
       <c r="E83" s="1">
         <v>36861</v>
       </c>
-      <c r="F83" t="s" s="0">
+      <c r="F83" t="s">
         <v>308</v>
       </c>
-      <c r="G83" t="s" s="0">
+      <c r="G83" t="s">
         <v>307</v>
       </c>
-      <c r="H83" t="s" s="0">
+      <c r="H83" t="s">
         <v>43</v>
       </c>
-      <c r="I83" t="s" s="0">
+      <c r="I83" t="s">
         <v>98</v>
       </c>
-      <c r="J83" t="s" s="0">
+      <c r="J83" t="s">
         <v>183</v>
       </c>
-      <c r="K83" t="s" s="0">
+      <c r="K83" t="s">
         <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M83" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M83" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" t="s" s="0">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>328</v>
+      </c>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s" s="0">
+      <c r="F84" t="s">
         <v>18</v>
       </c>
-      <c r="G84" t="s" s="0">
+      <c r="G84" t="s">
         <v>83</v>
       </c>
-      <c r="H84" t="s" s="0">
+      <c r="H84" t="s">
         <v>41</v>
       </c>
-      <c r="I84" t="s" s="0">
+      <c r="I84" t="s">
         <v>28</v>
       </c>
-      <c r="K84" t="s" s="0">
+      <c r="K84" t="s">
         <v>277</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M84" t="s" s="0">
+      <c r="M84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" t="s" s="0">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>326</v>
+      </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s" s="0">
+      <c r="F86" t="s">
         <v>304</v>
       </c>
-      <c r="G86" t="s" s="0">
+      <c r="G86" t="s">
         <v>82</v>
       </c>
-      <c r="H86" t="s" s="0">
+      <c r="H86" t="s">
         <v>8</v>
       </c>
-      <c r="I86" t="s" s="0">
+      <c r="I86" t="s">
         <v>26</v>
       </c>
-      <c r="J86" t="s" s="0">
+      <c r="J86" t="s">
         <v>160</v>
       </c>
-      <c r="K86" t="s" s="0">
+      <c r="K86" t="s">
         <v>265</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M86" t="s" s="0">
+      <c r="M86" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" t="s" s="0">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>325</v>
+      </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s" s="0">
+      <c r="F87" t="s">
         <v>308</v>
       </c>
-      <c r="G87" t="s" s="0">
+      <c r="G87" t="s">
         <v>307</v>
       </c>
-      <c r="H87" t="s" s="0">
+      <c r="H87" t="s">
         <v>9</v>
       </c>
-      <c r="I87" t="s" s="0">
+      <c r="I87" t="s">
         <v>178</v>
       </c>
-      <c r="J87" t="s" s="0">
+      <c r="J87" t="s">
         <v>152</v>
       </c>
-      <c r="K87" t="s" s="0">
+      <c r="K87" t="s">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M87" t="s" s="0">
+      <c r="M87" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" t="s" s="0">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>324</v>
+      </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s" s="0">
+      <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="G88" t="s" s="0">
+      <c r="G88" t="s">
         <v>82</v>
       </c>
-      <c r="H88" t="s" s="0">
+      <c r="H88" t="s">
         <v>8</v>
       </c>
-      <c r="I88" t="s" s="0">
+      <c r="I88" t="s">
         <v>28</v>
       </c>
-      <c r="J88" t="s" s="0">
+      <c r="J88" t="s">
         <v>251</v>
       </c>
-      <c r="K88" t="s" s="0">
+      <c r="K88" t="s">
         <v>268</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M88" t="s" s="0">
+      <c r="M88" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s" s="0">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>323</v>
+      </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s" s="0">
+      <c r="F89" t="s">
         <v>310</v>
       </c>
-      <c r="G89" t="s" s="0">
+      <c r="G89" t="s">
         <v>309</v>
       </c>
-      <c r="H89" t="s" s="0">
+      <c r="H89" t="s">
         <v>10</v>
       </c>
-      <c r="I89" t="s" s="0">
+      <c r="I89" t="s">
         <v>145</v>
       </c>
-      <c r="J89" t="s" s="0">
+      <c r="J89" t="s">
         <v>255</v>
       </c>
-      <c r="K89" t="s" s="0">
+      <c r="K89" t="s">
         <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="M89" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="M89" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" t="s" s="0">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>299</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>322</v>
+      </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s" s="0">
+      <c r="F90" t="s">
         <v>308</v>
       </c>
-      <c r="G90" t="s" s="0">
+      <c r="G90" t="s">
         <v>307</v>
       </c>
-      <c r="H90" t="s" s="0">
+      <c r="H90" t="s">
         <v>41</v>
       </c>
-      <c r="I90" t="s" s="0">
+      <c r="I90" t="s">
         <v>171</v>
       </c>
-      <c r="K90" t="s" s="0">
+      <c r="K90" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="M90" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="M90" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" t="s" s="0">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>298</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>321</v>
+      </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s" s="0">
+      <c r="F91" t="s">
         <v>306</v>
       </c>
-      <c r="G91" t="s" s="0">
+      <c r="G91" t="s">
         <v>305</v>
       </c>
-      <c r="H91" t="s" s="0">
+      <c r="H91" t="s">
         <v>8</v>
       </c>
-      <c r="I91" t="s" s="0">
+      <c r="I91" t="s">
         <v>115</v>
       </c>
-      <c r="J91" t="s" s="0">
+      <c r="J91" t="s">
         <v>211</v>
       </c>
-      <c r="K91" t="s" s="0">
+      <c r="K91" t="s">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M91" t="s" s="0">
+      <c r="M91" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" t="s" s="0">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>320</v>
+      </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s" s="0">
+      <c r="F92" t="s">
         <v>308</v>
       </c>
-      <c r="G92" t="s" s="0">
+      <c r="G92" t="s">
         <v>307</v>
       </c>
-      <c r="H92" t="s" s="0">
+      <c r="H92" t="s">
         <v>8</v>
       </c>
-      <c r="I92" t="s" s="0">
+      <c r="I92" t="s">
         <v>24</v>
       </c>
-      <c r="J92" t="s" s="0">
+      <c r="J92" t="s">
         <v>174</v>
       </c>
-      <c r="K92" t="s" s="0">
+      <c r="K92" t="s">
         <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M92" t="s" s="0">
+      <c r="M92" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" t="s" s="0">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>318</v>
+      </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s" s="0">
+      <c r="F93" t="s">
         <v>310</v>
       </c>
-      <c r="G93" t="s" s="0">
+      <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="H93" t="s" s="0">
+      <c r="H93" t="s">
         <v>56</v>
       </c>
-      <c r="I93" t="s" s="0">
+      <c r="I93" t="s">
         <v>207</v>
       </c>
-      <c r="J93" t="s" s="0">
+      <c r="J93" t="s">
         <v>187</v>
       </c>
-      <c r="K93" t="s" s="0">
+      <c r="K93" t="s">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M93" t="s" s="0">
+      <c r="M93" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" t="s" s="0">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>316</v>
+      </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s" s="0">
+      <c r="F94" t="s">
         <v>310</v>
       </c>
-      <c r="G94" t="s" s="0">
+      <c r="G94" t="s">
         <v>309</v>
       </c>
-      <c r="H94" t="s" s="0">
+      <c r="H94" t="s">
         <v>8</v>
       </c>
-      <c r="I94" t="s" s="0">
+      <c r="I94" t="s">
         <v>95</v>
       </c>
-      <c r="J94" t="s" s="0">
+      <c r="J94" t="s">
         <v>33</v>
       </c>
-      <c r="K94" t="s" s="0">
+      <c r="K94" t="s">
         <v>193</v>
       </c>
-      <c r="M94" t="s" s="0">
+      <c r="M94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" t="s" s="0">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>315</v>
+      </c>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s" s="0">
+      <c r="F95" t="s">
         <v>18</v>
       </c>
-      <c r="G95" t="s" s="0">
+      <c r="G95" t="s">
         <v>83</v>
       </c>
-      <c r="H95" t="s" s="0">
+      <c r="H95" t="s">
         <v>9</v>
       </c>
-      <c r="I95" t="s" s="0">
+      <c r="I95" t="s">
         <v>95</v>
       </c>
-      <c r="J95" t="s" s="0">
+      <c r="J95" t="s">
         <v>33</v>
       </c>
-      <c r="K95" t="s" s="0">
+      <c r="K95" t="s">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="M95" t="s" s="0">
+      <c r="M95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" t="s" s="0">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>291</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4798,33 +4659,33 @@
       <c r="E102" s="1">
         <v>43070</v>
       </c>
-      <c r="F102" t="s" s="0">
+      <c r="F102" t="s">
         <v>310</v>
       </c>
-      <c r="G102" t="s" s="0">
+      <c r="G102" t="s">
         <v>309</v>
       </c>
-      <c r="H102" t="s" s="0">
+      <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102" t="s" s="0">
+      <c r="I102" t="s">
         <v>171</v>
       </c>
-      <c r="J102" t="s" s="0">
+      <c r="J102" t="s">
         <v>32</v>
       </c>
-      <c r="K102" t="s" s="0">
+      <c r="K102" t="s">
         <v>234</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s" s="0">
+      <c r="M102" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" t="s" s="0">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>293</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4833,104 +4694,103 @@
       <c r="E103" s="1">
         <v>43952</v>
       </c>
-      <c r="F103" t="s" s="0">
+      <c r="F103" t="s">
         <v>310</v>
       </c>
-      <c r="G103" t="s" s="0">
+      <c r="G103" t="s">
         <v>309</v>
       </c>
-      <c r="H103" t="s" s="0">
+      <c r="H103" t="s">
         <v>45</v>
       </c>
-      <c r="I103" t="s" s="0">
+      <c r="I103" t="s">
         <v>115</v>
       </c>
-      <c r="J103" t="s" s="0">
+      <c r="J103" t="s">
         <v>25</v>
       </c>
-      <c r="K103" t="s" s="0">
+      <c r="K103" t="s">
         <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="M103" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" t="s" s="0">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="2"/>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s" s="0">
+      <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="G104" t="s" s="0">
+      <c r="G104" t="s">
         <v>83</v>
       </c>
-      <c r="H104" t="s" s="0">
+      <c r="H104" t="s">
         <v>39</v>
       </c>
-      <c r="I104" t="s" s="0">
+      <c r="I104" t="s">
         <v>24</v>
       </c>
-      <c r="J104" t="s" s="0">
+      <c r="J104" t="s">
         <v>148</v>
       </c>
-      <c r="K104" t="s" s="0">
+      <c r="K104" t="s">
         <v>250</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M104" t="s" s="0">
+      <c r="M104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" t="s" s="0">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
-      <c r="F105" t="s" s="0">
+      <c r="F105" t="s">
         <v>304</v>
       </c>
-      <c r="G105" t="s" s="0">
+      <c r="G105" t="s">
         <v>82</v>
       </c>
-      <c r="H105" t="s" s="0">
+      <c r="H105" t="s">
         <v>43</v>
       </c>
-      <c r="I105" t="s" s="0">
+      <c r="I105" t="s">
         <v>207</v>
       </c>
-      <c r="J105" t="s" s="0">
+      <c r="J105" t="s">
         <v>114</v>
       </c>
-      <c r="K105" t="s" s="0">
+      <c r="K105" t="s">
         <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M105" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M105" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" t="s" s="0">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>292</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4939,68 +4799,68 @@
       <c r="E106" s="1">
         <v>41093</v>
       </c>
-      <c r="F106" t="s" s="0">
+      <c r="F106" t="s">
         <v>18</v>
       </c>
-      <c r="G106" t="s" s="0">
+      <c r="G106" t="s">
         <v>83</v>
       </c>
-      <c r="H106" t="s" s="0">
+      <c r="H106" t="s">
         <v>41</v>
       </c>
-      <c r="I106" t="s" s="0">
-        <v>413</v>
-      </c>
-      <c r="J106" t="s" s="0">
+      <c r="I106" t="s">
+        <v>408</v>
+      </c>
+      <c r="J106" t="s">
         <v>17</v>
       </c>
-      <c r="K106" t="s" s="0">
+      <c r="K106" t="s">
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M106" t="s" s="0">
+      <c r="M106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" t="s" s="0">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
-      <c r="F127" t="s" s="0">
+      <c r="F127" t="s">
         <v>304</v>
       </c>
-      <c r="G127" t="s" s="0">
+      <c r="G127" t="s">
         <v>82</v>
       </c>
-      <c r="H127" t="s" s="0">
+      <c r="H127" t="s">
         <v>12</v>
       </c>
-      <c r="I127" t="s" s="0">
+      <c r="I127" t="s">
         <v>31</v>
       </c>
-      <c r="J127" t="s" s="0">
+      <c r="J127" t="s">
         <v>278</v>
       </c>
-      <c r="K127" t="s" s="0">
+      <c r="K127" t="s">
         <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M127" t="s" s="0">
+      <c r="M127" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" t="s" s="0">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>294</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5009,138 +4869,138 @@
       <c r="E128" s="1">
         <v>36739</v>
       </c>
-      <c r="F128" t="s" s="0">
+      <c r="F128" t="s">
         <v>310</v>
       </c>
-      <c r="G128" t="s" s="0">
+      <c r="G128" t="s">
         <v>309</v>
       </c>
-      <c r="H128" t="s" s="0">
+      <c r="H128" t="s">
         <v>45</v>
       </c>
-      <c r="I128" t="s" s="0">
+      <c r="I128" t="s">
         <v>141</v>
       </c>
-      <c r="J128" t="s" s="0">
+      <c r="J128" t="s">
         <v>264</v>
       </c>
-      <c r="K128" t="s" s="0">
+      <c r="K128" t="s">
         <v>157</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M128" t="s" s="0">
+      <c r="M128" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" t="s" s="0">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
-      <c r="F129" t="s" s="0">
+      <c r="F129" t="s">
         <v>306</v>
       </c>
-      <c r="G129" t="s" s="0">
+      <c r="G129" t="s">
         <v>305</v>
       </c>
-      <c r="H129" t="s" s="0">
+      <c r="H129" t="s">
         <v>39</v>
       </c>
-      <c r="I129" t="s" s="0">
+      <c r="I129" t="s">
         <v>243</v>
       </c>
-      <c r="J129" t="s" s="0">
+      <c r="J129" t="s">
         <v>266</v>
       </c>
-      <c r="K129" t="s" s="0">
+      <c r="K129" t="s">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="M129" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M129" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" t="s" s="0">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
-      <c r="F130" t="s" s="0">
+      <c r="F130" t="s">
         <v>304</v>
       </c>
-      <c r="G130" t="s" s="0">
+      <c r="G130" t="s">
         <v>82</v>
       </c>
-      <c r="H130" t="s" s="0">
+      <c r="H130" t="s">
         <v>43</v>
       </c>
-      <c r="I130" t="s" s="0">
+      <c r="I130" t="s">
         <v>107</v>
       </c>
-      <c r="J130" t="s" s="0">
+      <c r="J130" t="s">
         <v>103</v>
       </c>
-      <c r="K130" t="s" s="0">
+      <c r="K130" t="s">
         <v>268</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M130" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M130" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" t="s" s="0">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
-      <c r="F131" t="s" s="0">
+      <c r="F131" t="s">
         <v>306</v>
       </c>
-      <c r="G131" t="s" s="0">
+      <c r="G131" t="s">
         <v>305</v>
       </c>
-      <c r="H131" t="s" s="0">
+      <c r="H131" t="s">
         <v>41</v>
       </c>
-      <c r="I131" t="s" s="0">
+      <c r="I131" t="s">
         <v>214</v>
       </c>
-      <c r="J131" t="s" s="0">
+      <c r="J131" t="s">
         <v>269</v>
       </c>
-      <c r="K131" t="s" s="0">
+      <c r="K131" t="s">
         <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M131" t="s" s="0">
+      <c r="M131" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" t="s" s="0">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5149,165 +5009,165 @@
       <c r="E132" s="1">
         <v>40909</v>
       </c>
-      <c r="F132" t="s" s="0">
+      <c r="F132" t="s">
         <v>18</v>
       </c>
-      <c r="G132" t="s" s="0">
+      <c r="G132" t="s">
         <v>83</v>
       </c>
-      <c r="H132" t="s" s="0">
+      <c r="H132" t="s">
         <v>9</v>
       </c>
-      <c r="I132" t="s" s="0">
+      <c r="I132" t="s">
         <v>229</v>
       </c>
-      <c r="J132" t="s" s="0">
+      <c r="J132" t="s">
         <v>272</v>
       </c>
-      <c r="K132" t="s" s="0">
+      <c r="K132" t="s">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M132" t="s" s="0">
+      <c r="M132" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" t="s" s="0">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
       </c>
-      <c r="F133" t="s" s="0">
+      <c r="F133" t="s">
         <v>18</v>
       </c>
-      <c r="G133" t="s" s="0">
+      <c r="G133" t="s">
         <v>83</v>
       </c>
-      <c r="H133" t="s" s="0">
+      <c r="H133" t="s">
         <v>8</v>
       </c>
-      <c r="I133" t="s" s="0">
+      <c r="I133" t="s">
         <v>24</v>
       </c>
-      <c r="J133" t="s" s="0">
+      <c r="J133" t="s">
         <v>32</v>
       </c>
-      <c r="K133" t="s" s="0">
+      <c r="K133" t="s">
         <v>21</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M133" t="s" s="0">
+      <c r="M133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" t="s" s="0">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
-      <c r="F134" t="s" s="0">
+      <c r="F134" t="s">
         <v>308</v>
       </c>
-      <c r="G134" t="s" s="0">
+      <c r="G134" t="s">
         <v>307</v>
       </c>
-      <c r="H134" t="s" s="0">
+      <c r="H134" t="s">
         <v>9</v>
       </c>
-      <c r="I134" t="s" s="0">
+      <c r="I134" t="s">
         <v>118</v>
       </c>
-      <c r="J134" t="s" s="0">
+      <c r="J134" t="s">
         <v>25</v>
       </c>
-      <c r="K134" t="s" s="0">
+      <c r="K134" t="s">
         <v>147</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M134" t="s" s="0">
+      <c r="M134" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" t="s" s="0">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>296</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
-      <c r="F135" t="s" s="0">
+      <c r="F135" t="s">
         <v>310</v>
       </c>
-      <c r="G135" t="s" s="0">
+      <c r="G135" t="s">
         <v>309</v>
       </c>
-      <c r="H135" t="s" s="0">
+      <c r="H135" t="s">
         <v>8</v>
       </c>
-      <c r="I135" t="s" s="0">
+      <c r="I135" t="s">
         <v>28</v>
       </c>
-      <c r="J135" t="s" s="0">
+      <c r="J135" t="s">
         <v>148</v>
       </c>
-      <c r="K135" t="s" s="0">
+      <c r="K135" t="s">
         <v>113</v>
       </c>
-      <c r="M135" t="s" s="0">
+      <c r="M135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" t="s" s="0">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>291</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
-      <c r="F136" t="s" s="0">
+      <c r="F136" t="s">
         <v>306</v>
       </c>
-      <c r="G136" t="s" s="0">
+      <c r="G136" t="s">
         <v>305</v>
       </c>
-      <c r="H136" t="s" s="0">
+      <c r="H136" t="s">
         <v>10</v>
       </c>
-      <c r="I136" t="s" s="0">
+      <c r="I136" t="s">
         <v>203</v>
       </c>
-      <c r="J136" t="s" s="0">
+      <c r="J136" t="s">
         <v>114</v>
       </c>
-      <c r="K136" t="s" s="0">
+      <c r="K136" t="s">
         <v>193</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M136" t="s" s="0">
+      <c r="M136" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5318,185 +5178,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125"/>
-    <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.88671875"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>12500</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1850</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>13000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1500</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>14000</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1800</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>19000</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>3500</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>26000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>4800</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>17500</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>2750</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>21000</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>3500</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>31000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>10500</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>12500</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>1200</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>14500</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>1350</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>20500</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>1500</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>16500</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>1500</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>1100</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>31000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>5500</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5513,161 +5373,161 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>230</v>
       </c>
     </row>
@@ -5684,469 +5544,469 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.44140625"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>12000</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>13000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3.6</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>14000</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>6.5</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>15000</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>8.5</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>16000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>17000</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>10.55</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>18000</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>11.15</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>19000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="G9" s="0">
+      <c r="F9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>20000</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>12.15</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>419</v>
-      </c>
-      <c r="G10" s="0">
+      <c r="F10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>21000</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>22000</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>23000</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>24000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>25000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="0">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>26000</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>27000</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>28000</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>29000</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>30000</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>31000</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>32000</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>33000</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>34000</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>35000</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>36000</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>37000</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>38000</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>39000</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>40000</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>41000</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>42000</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>43000</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>44000</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>45000</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>46000</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>47000</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>48000</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>49000</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="0">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>50000</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="0">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>51000</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="0">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>52000</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="0">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>53000</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="0">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>54000</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="0">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>55000</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="0">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>56000</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="0">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>57000</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="0">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>58000</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="0">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>59000</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="0">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>60000</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>26.22</v>
       </c>
     </row>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0FEC0-58A4-474F-9FC3-12145EFA74A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD03C34-2E21-4435-BD0F-64AA24040A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="426">
   <si>
     <t>Nombre</t>
   </si>
@@ -1248,9 +1248,6 @@
     <t>65614874165615445616</t>
   </si>
   <si>
-    <t>31645124473461205164</t>
-  </si>
-  <si>
     <t>Gerardo</t>
   </si>
   <si>
@@ -1294,12 +1291,28 @@
   </si>
   <si>
     <t>09548416N</t>
+  </si>
+  <si>
+    <t>zxcvzxv</t>
+  </si>
+  <si>
+    <t>ssssssssssssssss</t>
+  </si>
+  <si>
+    <t>BINEEEEEEEEE</t>
+  </si>
+  <si>
+    <t>DIABLO</t>
+  </si>
+  <si>
+    <t>QUE PASOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1708,21 +1721,21 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125"/>
+    <col min="12" max="12" style="2" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1731,75 +1744,75 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="O1" t="s" s="0">
         <v>412</v>
       </c>
-      <c r="O1" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -1810,7 +1823,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1819,68 +1832,68 @@
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>218</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1889,33 +1902,33 @@
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1924,103 +1937,103 @@
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>223</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>208</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2029,33 +2042,33 @@
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2064,33 +2077,33 @@
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>260</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2099,33 +2112,33 @@
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>248</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2134,33 +2147,33 @@
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>258</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2169,33 +2182,33 @@
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>245</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2204,33 +2217,33 @@
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="M14" t="s">
+        <v>415</v>
+      </c>
+      <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>299</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2239,33 +2252,33 @@
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2274,33 +2287,33 @@
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2309,33 +2322,33 @@
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M18" t="s">
+        <v>420</v>
+      </c>
+      <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>293</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2344,33 +2357,33 @@
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" t="s" s="0">
         <v>162</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2379,33 +2392,33 @@
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" t="s" s="0">
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2414,33 +2427,33 @@
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>139</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2449,30 +2462,30 @@
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2481,30 +2494,30 @@
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2513,30 +2526,30 @@
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>230</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2545,30 +2558,30 @@
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2577,33 +2590,33 @@
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
-        <v>407</v>
+      <c r="K27" t="s" s="0">
+        <v>406</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2612,33 +2625,33 @@
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" t="s" s="0">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2647,33 +2660,33 @@
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s" s="0">
         <v>408</v>
-      </c>
-      <c r="J29" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" t="s">
-        <v>409</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2682,33 +2695,33 @@
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" t="s" s="0">
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2717,33 +2730,33 @@
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" t="s" s="0">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2752,33 +2765,33 @@
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
-        <v>410</v>
-      </c>
-      <c r="J32" t="s">
-        <v>410</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="I32" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="K32" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2787,33 +2800,33 @@
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" t="s" s="0">
         <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2822,33 +2835,33 @@
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" t="s" s="0">
         <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2857,33 +2870,33 @@
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" t="s" s="0">
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2892,33 +2905,33 @@
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" t="s" s="0">
         <v>94</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2927,33 +2940,33 @@
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" t="s" s="0">
         <v>170</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2962,33 +2975,33 @@
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" t="s" s="0">
         <v>164</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2997,33 +3010,33 @@
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" t="s" s="0">
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3032,33 +3045,33 @@
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" t="s" s="0">
         <v>206</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3067,33 +3080,33 @@
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3102,33 +3115,33 @@
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" t="s" s="0">
         <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3137,33 +3150,33 @@
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" t="s" s="0">
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3172,33 +3185,33 @@
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" t="s" s="0">
         <v>155</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3207,33 +3220,33 @@
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" t="s" s="0">
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3242,33 +3255,33 @@
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3277,33 +3290,33 @@
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" t="s" s="0">
         <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3312,33 +3325,33 @@
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" t="s" s="0">
         <v>198</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>299</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3347,33 +3360,33 @@
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" t="s" s="0">
         <v>134</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3382,33 +3395,33 @@
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" t="s" s="0">
         <v>218</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -3417,33 +3430,33 @@
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="M54" t="s">
+        <v>416</v>
+      </c>
+      <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3452,33 +3465,33 @@
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -3487,33 +3500,33 @@
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" t="s" s="0">
         <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3522,33 +3535,33 @@
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K61" t="s">
-        <v>411</v>
+      <c r="K61" t="s" s="0">
+        <v>410</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -3557,33 +3570,33 @@
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" t="s" s="0">
         <v>258</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3592,33 +3605,33 @@
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" t="s" s="0">
         <v>245</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3627,30 +3640,30 @@
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3659,30 +3672,30 @@
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" t="s" s="0">
         <v>69</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3691,30 +3704,30 @@
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" t="s" s="0">
         <v>283</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3723,33 +3736,33 @@
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3758,33 +3771,33 @@
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3793,33 +3806,33 @@
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" t="s" s="0">
         <v>162</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -3828,33 +3841,33 @@
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" t="s" s="0">
         <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3863,33 +3876,33 @@
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" t="s" s="0">
         <v>208</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>303</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -3898,33 +3911,33 @@
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3933,33 +3946,33 @@
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3968,33 +3981,33 @@
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" t="s" s="0">
         <v>234</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4003,33 +4016,33 @@
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" t="s" s="0">
         <v>151</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>295</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -4038,33 +4051,33 @@
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" t="s" s="0">
         <v>250</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -4073,33 +4086,33 @@
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" t="s" s="0">
         <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="M77" t="s">
+        <v>417</v>
+      </c>
+      <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -4108,33 +4121,33 @@
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" t="s" s="0">
         <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4143,33 +4156,33 @@
       <c r="E80" s="1">
         <v>43009</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" t="s" s="0">
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -4178,33 +4191,33 @@
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" t="s" s="0">
         <v>186</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4213,33 +4226,33 @@
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" t="s" s="0">
         <v>169</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>301</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -4248,33 +4261,33 @@
       <c r="E83" s="1">
         <v>36861</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" t="s" s="0">
         <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="M83" t="s">
+        <v>418</v>
+      </c>
+      <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -4283,30 +4296,30 @@
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" t="s" s="0">
         <v>277</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -4315,33 +4328,33 @@
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" t="s" s="0">
         <v>265</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -4350,33 +4363,33 @@
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" t="s" s="0">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -4385,33 +4398,33 @@
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" t="s" s="0">
         <v>268</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -4420,33 +4433,33 @@
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" t="s" s="0">
         <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>299</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4455,30 +4468,30 @@
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>298</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4487,33 +4500,33 @@
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4522,33 +4535,33 @@
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" t="s" s="0">
         <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -4557,33 +4570,33 @@
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" t="s" s="0">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -4592,30 +4605,30 @@
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4624,33 +4637,33 @@
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" t="s" s="0">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>291</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4659,33 +4672,33 @@
       <c r="E102" s="1">
         <v>43070</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" t="s" s="0">
         <v>234</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>293</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4694,33 +4707,33 @@
       <c r="E103" s="1">
         <v>43952</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" t="s" s="0">
         <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4729,33 +4742,33 @@
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" t="s" s="0">
         <v>250</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4764,33 +4777,33 @@
       <c r="E105" s="1">
         <v>44014</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" t="s" s="0">
         <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="M105" t="s">
+        <v>419</v>
+      </c>
+      <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>292</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4799,33 +4812,33 @@
       <c r="E106" s="1">
         <v>41093</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I106" t="s">
-        <v>408</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="I106" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="J106" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" t="s" s="0">
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -4834,33 +4847,33 @@
       <c r="E127" s="1">
         <v>39142</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" t="s" s="0">
         <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>294</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -4869,33 +4882,33 @@
       <c r="E128" s="1">
         <v>36739</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" t="s" s="0">
         <v>157</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -4904,33 +4917,33 @@
       <c r="E129" s="1">
         <v>42125</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" t="s" s="0">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -4939,33 +4952,33 @@
       <c r="E130" s="1">
         <v>39052</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130" t="s" s="0">
         <v>268</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -4974,33 +4987,33 @@
       <c r="E131" s="1">
         <v>40391</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" t="s" s="0">
         <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5009,33 +5022,33 @@
       <c r="E132" s="1">
         <v>40909</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5044,33 +5057,33 @@
       <c r="E133" s="1">
         <v>41456</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5079,33 +5092,33 @@
       <c r="E134" s="1">
         <v>42248</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" t="s" s="0">
         <v>147</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>296</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -5114,30 +5127,30 @@
       <c r="E135" s="1">
         <v>39995</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>291</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -5146,28 +5159,28 @@
       <c r="E136" s="1">
         <v>39356</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" t="s" s="0">
         <v>193</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -5178,7 +5191,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -5186,177 +5199,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12500</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1850</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1500</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1800</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>19000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>3500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>26000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>4800</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>17500</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>2750</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>21000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>3500</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>31000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>10500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>12500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>1200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>14500</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>1350</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>20500</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>1500</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>16500</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>1500</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>11000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>1100</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>31000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>5500</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>44</v>
       </c>
     </row>
@@ -5375,159 +5388,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>230</v>
       </c>
     </row>
@@ -5546,467 +5559,467 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="41.42578125"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>23.6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>3.6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>6.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>15000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>8.5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>16000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>17000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>10.55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>18000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>11.15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>19000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>20000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>12.15</v>
       </c>
-      <c r="F10" t="s">
-        <v>414</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>21000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>22000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>23000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>24000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>14.15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>25000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>26000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>27000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>28000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>16.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>29000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>16.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>30000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>17.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>31000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>17.45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>32000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>17.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>33000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>34000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>35000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>18.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>36000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>37000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>38000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>19.62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>39000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>19.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>40000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>20.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>41000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>20.52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>42000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>20.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>43000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>21.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>44000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>21.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>45000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>21.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>46000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>22.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="0">
         <v>47000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>22.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>48000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>22.62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>49000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>22.92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>50000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>23.22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>51000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>23.52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>52000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>23.82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>53000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>24.12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>54000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>24.42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>55000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>24.72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>56000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>25.02</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>57000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>25.32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>58000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>25.62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>59000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>25.92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>60000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>26.22</v>
       </c>
     </row>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\git\Practica_SI\NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD03C34-2E21-4435-BD0F-64AA24040A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9455F-04A9-4364-B2AC-F52E902CA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="422">
   <si>
     <t>Nombre</t>
   </si>
@@ -1215,36 +1215,24 @@
     <t>25894363475485700145</t>
   </si>
   <si>
-    <t>21584976902154655487</t>
-  </si>
-  <si>
     <t>23215465315456411515</t>
   </si>
   <si>
     <t>32566221522587754554</t>
   </si>
   <si>
-    <t>21564975243245467995</t>
-  </si>
-  <si>
     <t>Y1337652D</t>
   </si>
   <si>
     <t>21651484690980008984</t>
   </si>
   <si>
-    <t>20125003305201112544</t>
-  </si>
-  <si>
     <t>36520125638451012515</t>
   </si>
   <si>
     <t>24561937521546497521</t>
   </si>
   <si>
-    <t>32569523016220165156</t>
-  </si>
-  <si>
     <t>65614874165615445616</t>
   </si>
   <si>
@@ -1293,19 +1281,19 @@
     <t>09548416N</t>
   </si>
   <si>
-    <t>zxcvzxv</t>
-  </si>
-  <si>
     <t>ssssssssssssssss</t>
   </si>
   <si>
-    <t>BINEEEEEEEEE</t>
-  </si>
-  <si>
     <t>DIABLO</t>
   </si>
   <si>
     <t>QUE PASOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>DIABLO LOCO</t>
   </si>
 </sst>
 </file>
@@ -1721,20 +1709,20 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125"/>
-    <col min="12" max="12" style="2" width="11.42578125"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="12" max="12" style="2" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
@@ -1775,18 +1763,18 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
@@ -1822,12 +1810,12 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
@@ -1857,12 +1845,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
@@ -1892,12 +1880,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
@@ -1927,12 +1915,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
@@ -1962,12 +1950,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
@@ -1997,12 +1985,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
@@ -2032,12 +2020,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
@@ -2067,7 +2055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
@@ -2102,12 +2090,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>70</v>
+        <v>421</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="E11" s="1">
         <v>41030</v>
@@ -2137,12 +2125,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
@@ -2172,12 +2160,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
@@ -2207,7 +2195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
@@ -2236,13 +2224,13 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
         <v>299</v>
       </c>
@@ -2277,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
@@ -2312,7 +2300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
         <v>291</v>
       </c>
@@ -2341,13 +2329,13 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
         <v>293</v>
       </c>
@@ -2382,7 +2370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
@@ -2417,7 +2405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
@@ -2452,7 +2440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
@@ -2484,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
@@ -2516,7 +2504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
@@ -2548,7 +2536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
@@ -2580,7 +2568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
@@ -2606,7 +2594,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
@@ -2615,7 +2603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
@@ -2650,7 +2638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
         <v>303</v>
       </c>
@@ -2670,13 +2658,13 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>242</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
@@ -2685,7 +2673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
@@ -2720,7 +2708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
@@ -2755,7 +2743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
         <v>301</v>
       </c>
@@ -2775,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>179</v>
@@ -2790,7 +2778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
@@ -2825,7 +2813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
@@ -2860,7 +2848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
@@ -2895,7 +2883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
@@ -2930,7 +2918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
@@ -2965,7 +2953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
@@ -3000,7 +2988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
@@ -3035,7 +3023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
@@ -3070,7 +3058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
@@ -3105,7 +3093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
@@ -3140,7 +3128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
@@ -3175,7 +3163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
@@ -3210,7 +3198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
@@ -3245,7 +3233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
@@ -3280,7 +3268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
@@ -3315,7 +3303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
@@ -3350,7 +3338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
         <v>299</v>
       </c>
@@ -3385,7 +3373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
@@ -3420,7 +3408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
@@ -3449,13 +3437,13 @@
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
@@ -3490,7 +3478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
@@ -3525,7 +3513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
@@ -3551,7 +3539,7 @@
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>274</v>
@@ -3560,7 +3548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
@@ -3595,7 +3583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
@@ -3630,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
@@ -3662,7 +3650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
@@ -3694,7 +3682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
@@ -3726,7 +3714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
@@ -3761,7 +3749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
@@ -3796,7 +3784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
@@ -3831,7 +3819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
@@ -3866,7 +3854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
@@ -3901,7 +3889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
         <v>303</v>
       </c>
@@ -3936,7 +3924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
@@ -3971,7 +3959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
@@ -4006,7 +3994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
@@ -4041,7 +4029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
         <v>295</v>
       </c>
@@ -4076,7 +4064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
@@ -4105,13 +4093,13 @@
         <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
@@ -4146,7 +4134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
@@ -4181,7 +4169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
@@ -4216,7 +4204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
@@ -4251,7 +4239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
         <v>301</v>
       </c>
@@ -4280,13 +4268,13 @@
         <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
@@ -4318,7 +4306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
@@ -4353,7 +4341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
         <v>294</v>
       </c>
@@ -4388,7 +4376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
@@ -4423,7 +4411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
@@ -4452,13 +4440,13 @@
         <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
         <v>299</v>
       </c>
@@ -4484,13 +4472,13 @@
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
         <v>298</v>
       </c>
@@ -4525,7 +4513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
@@ -4560,7 +4548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
@@ -4595,7 +4583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
         <v>291</v>
       </c>
@@ -4627,7 +4615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
@@ -4662,7 +4650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
         <v>291</v>
       </c>
@@ -4697,7 +4685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
         <v>293</v>
       </c>
@@ -4732,7 +4720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
         <v>302</v>
       </c>
@@ -4767,7 +4755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
@@ -4796,13 +4784,13 @@
         <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
         <v>292</v>
       </c>
@@ -4822,7 +4810,7 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
@@ -4837,7 +4825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
@@ -4872,7 +4860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s" s="0">
         <v>294</v>
       </c>
@@ -4907,7 +4895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
@@ -4942,7 +4930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
@@ -4977,7 +4965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
@@ -5012,7 +5000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
@@ -5047,7 +5035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
@@ -5082,7 +5070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
@@ -5117,7 +5105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s" s="0">
         <v>296</v>
       </c>
@@ -5149,7 +5137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s" s="0">
         <v>291</v>
       </c>
@@ -5197,18 +5185,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.85546875"/>
+    <col min="7" max="7" customWidth="true" width="15.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -5219,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12500</v>
       </c>
@@ -5230,7 +5218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5241,7 +5229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5252,7 +5240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>19000</v>
       </c>
@@ -5263,7 +5251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>26000</v>
       </c>
@@ -5274,7 +5262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17500</v>
       </c>
@@ -5285,7 +5273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>21000</v>
       </c>
@@ -5296,7 +5284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>31000</v>
       </c>
@@ -5307,7 +5295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>12500</v>
       </c>
@@ -5318,7 +5306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>14500</v>
       </c>
@@ -5329,7 +5317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>20500</v>
       </c>
@@ -5340,7 +5328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>16500</v>
       </c>
@@ -5351,7 +5339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>11000</v>
       </c>
@@ -5362,7 +5350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>31000</v>
       </c>
@@ -5386,13 +5374,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
@@ -5400,7 +5388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -5408,7 +5396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -5416,7 +5404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -5424,7 +5412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -5432,7 +5420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -5440,7 +5428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -5448,7 +5436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -5456,7 +5444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -5464,7 +5452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -5472,7 +5460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -5480,7 +5468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -5488,7 +5476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -5496,7 +5484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -5504,7 +5492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -5512,7 +5500,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -5520,7 +5508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -5528,7 +5516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -5536,7 +5524,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -5557,13 +5545,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.42578125"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125"/>
+    <col min="6" max="6" customWidth="true" width="41.44140625"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -5577,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -5591,7 +5579,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5605,7 +5593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5619,7 +5607,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -5633,7 +5621,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -5647,7 +5635,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -5661,7 +5649,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -5675,7 +5663,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -5683,13 +5671,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -5697,13 +5685,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -5711,7 +5699,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -5719,7 +5707,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -5727,7 +5715,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -5735,7 +5723,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -5743,7 +5731,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -5751,7 +5739,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -5759,7 +5747,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -5767,7 +5755,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -5775,7 +5763,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -5783,7 +5771,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -5791,7 +5779,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -5799,7 +5787,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -5807,7 +5795,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -5815,7 +5803,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -5823,7 +5811,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -5831,7 +5819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -5839,7 +5827,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -5847,7 +5835,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -5855,7 +5843,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -5863,7 +5851,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -5871,7 +5859,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -5879,7 +5867,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -5887,7 +5875,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -5895,7 +5883,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -5903,7 +5891,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -5911,7 +5899,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -5919,7 +5907,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -5927,7 +5915,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -5935,7 +5923,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -5943,7 +5931,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -5951,7 +5939,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -5959,7 +5947,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -5967,7 +5955,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -5975,7 +5963,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -5983,7 +5971,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -5991,7 +5979,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -5999,7 +5987,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -6007,7 +5995,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -6015,7 +6003,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="0">
         <v>60000</v>
       </c>

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\git\Practica_SI\NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9455F-04A9-4364-B2AC-F52E902CA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A867447-C85A-4C84-84CC-13532CAFB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="422">
   <si>
     <t>Nombre</t>
   </si>
@@ -1290,10 +1290,10 @@
     <t>QUE PASOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>DIABLO LOCO</t>
+  </si>
+  <si>
+    <t>DIABLddddO LOCO</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1709,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,34 +2095,34 @@
         <v>421</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="1">
-        <v>41030</v>
+        <v>421</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>306</v>
+        <v>421</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>249</v>
+        <v>421</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>203</v>
+        <v>421</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>46</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">

--- a/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
+++ b/NominasSI/build/classes/resources/SistemasInformacionII.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\git\Practica_SI\NominasSI\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A867447-C85A-4C84-84CC-13532CAFB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C090AE8-4483-49B3-8BBC-7B16A6143BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="515">
   <si>
     <t>Nombre</t>
   </si>
@@ -774,12 +774,6 @@
     <t>09548505D</t>
   </si>
   <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Aparicio</t>
-  </si>
-  <si>
     <t>María</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t>31215643855060225021</t>
   </si>
   <si>
-    <t>09548443Q</t>
-  </si>
-  <si>
     <t>20960043013468900000</t>
   </si>
   <si>
@@ -1290,10 +1281,298 @@
     <t>QUE PASOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
   <si>
-    <t>DIABLO LOCO</t>
-  </si>
-  <si>
     <t>DIABLddddO LOCO</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>locura</t>
+  </si>
+  <si>
+    <t>GMM00@P2272621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>RFM00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ALM00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ALN00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>RGO00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SDO00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>VDO00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>VBP00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ABP00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>DDD00@DIABLddddO LOCOESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ACP00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>LBP00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>AGP00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>LBR00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SBR00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>AGR00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>DGR00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>PGS00@P2272621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CIS00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MQ00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>BV00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>PP00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>PC00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GMM00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CGM00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GMM00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CSN00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ALO00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>TCP00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CCP00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CAP00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SFP00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ELR00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>DLR00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>HAR00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SPR00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GPR00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SAS00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>BFS00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>DFG00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GMG00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MLG00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>IAG00@P2272621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>IAG00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GPG00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>RGG00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>APG00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>AFG00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>APM00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GMM00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>LDM00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>AD00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>LR00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>LC00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SBG00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>AFG00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>DGG00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>ROG00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SOG00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>VVG00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>VMG00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MBG00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CBG00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MSH00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>FDL00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>SDM00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>EGM00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>GPM00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>EAM00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MMM00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MG00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>JAC00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>BDC00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>NGC00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MLC00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MH00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MLC00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CFC00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CGC00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>HSC00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>KSC00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MHC00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CLD00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MFD00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>FGD00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>IVC00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>DMC00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>EBC00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>NBC00@P2456841AESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MSC00@P2492876RESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MDC00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>MFC00@P2472621IESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CDD00@P2463928TESTA MAL.com</t>
+  </si>
+  <si>
+    <t>CGD00@P2418823CESTA MAL.com</t>
+  </si>
+  <si>
+    <t>HPD00@P2492876RESTA MAL.com</t>
   </si>
 </sst>
 </file>
@@ -1709,20 +1988,20 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875"/>
-    <col min="12" max="12" style="2" width="11.44140625"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125"/>
+    <col min="12" max="12" style="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
@@ -1763,18 +2042,21 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>420</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
@@ -1810,21 +2092,24 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>421</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>38</v>
@@ -1845,18 +2130,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>422</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>82</v>
@@ -1880,21 +2168,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>423</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -1915,21 +2206,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>424</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>10</v>
@@ -1950,12 +2244,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>425</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
@@ -1985,21 +2282,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>426</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>40</v>
@@ -2020,18 +2320,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>427</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>82</v>
@@ -2055,18 +2358,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D10" t="s" s="0">
+        <v>428</v>
+      </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>82</v>
@@ -2081,7 +2387,7 @@
         <v>121</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2090,56 +2396,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>429</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>430</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
@@ -2151,30 +2466,33 @@
         <v>127</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>431</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>10</v>
@@ -2195,21 +2513,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>432</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>11</v>
@@ -2224,27 +2545,30 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>433</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>9</v>
@@ -2256,7 +2580,7 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
@@ -2265,21 +2589,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>434</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>8</v>
@@ -2300,21 +2627,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>435</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>8</v>
@@ -2329,18 +2659,21 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>436</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
@@ -2370,12 +2703,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>437</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
@@ -2405,12 +2741,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>438</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
@@ -2440,12 +2779,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>439</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
@@ -2472,59 +2814,65 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="D23" t="s" s="0">
+        <v>440</v>
+      </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>441</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s" s="0">
         <v>230</v>
@@ -2536,27 +2884,30 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>442</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>227</v>
@@ -2568,21 +2919,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>443</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>8</v>
@@ -2594,7 +2948,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
@@ -2603,21 +2957,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>444</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>12</v>
@@ -2638,12 +2995,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>445</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
@@ -2658,13 +3018,13 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>242</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
@@ -2673,21 +3033,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>446</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>38</v>
@@ -2702,18 +3065,21 @@
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>447</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
@@ -2728,7 +3094,7 @@
         <v>56</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>231</v>
@@ -2737,18 +3103,21 @@
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>445</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
@@ -2763,27 +3132,30 @@
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>448</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
@@ -2798,7 +3170,7 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>203</v>
@@ -2807,27 +3179,30 @@
         <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>449</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>39</v>
@@ -2848,18 +3223,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>450</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>82</v>
@@ -2877,24 +3255,27 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>451</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>82</v>
@@ -2918,21 +3299,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>452</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>44</v>
@@ -2953,18 +3337,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>453</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>82</v>
@@ -2988,18 +3375,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>454</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>82</v>
@@ -3023,18 +3413,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>455</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>82</v>
@@ -3058,21 +3451,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>456</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>10</v>
@@ -3093,21 +3489,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>457</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>10</v>
@@ -3128,12 +3527,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>458</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
@@ -3163,18 +3565,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>459</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>82</v>
@@ -3198,21 +3603,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="D48" t="s" s="0">
+        <v>460</v>
+      </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>44</v>
@@ -3227,24 +3635,27 @@
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>461</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>82</v>
@@ -3262,18 +3673,21 @@
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>462</v>
       </c>
       <c r="E50" s="1">
         <v>42248</v>
@@ -3297,18 +3711,21 @@
         <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>463</v>
       </c>
       <c r="E51" s="1">
         <v>44013</v>
@@ -3338,21 +3755,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>464</v>
       </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>11</v>
@@ -3373,21 +3793,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>465</v>
       </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>9</v>
@@ -3408,21 +3831,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>466</v>
       </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>9</v>
@@ -3437,18 +3863,21 @@
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>467</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
@@ -3472,27 +3901,30 @@
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>468</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>38</v>
@@ -3504,30 +3936,33 @@
         <v>233</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>469</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>56</v>
@@ -3539,27 +3974,30 @@
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>422</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>82</v>
@@ -3574,27 +4012,30 @@
         <v>167</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>470</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>82</v>
@@ -3618,21 +4059,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>471</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>10</v>
@@ -3650,21 +4094,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>472</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>41</v>
@@ -3682,18 +4129,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="D66" t="s" s="0">
+        <v>473</v>
+      </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>82</v>
@@ -3705,7 +4155,7 @@
         <v>238</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>195</v>
@@ -3714,18 +4164,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>474</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>82</v>
@@ -3743,27 +4196,30 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>475</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>9</v>
@@ -3778,27 +4234,30 @@
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>476</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>11</v>
@@ -3819,21 +4278,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>477</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>44</v>
@@ -3848,27 +4310,30 @@
         <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>478</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>10</v>
@@ -3889,18 +4354,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s" s="0">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>479</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>82</v>
@@ -3924,21 +4392,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>480</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>38</v>
@@ -3959,12 +4430,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
@@ -3994,18 +4468,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>482</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>82</v>
@@ -4029,12 +4506,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s" s="0">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>483</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
@@ -4055,30 +4535,33 @@
         <v>131</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D77" t="s" s="0">
+        <v>484</v>
+      </c>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>44</v>
@@ -4090,27 +4573,30 @@
         <v>220</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>485</v>
       </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>82</v>
@@ -4134,18 +4620,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>486</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G80" t="s" s="0">
         <v>82</v>
@@ -4163,27 +4652,30 @@
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>487</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>45</v>
@@ -4204,18 +4696,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>488</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>82</v>
@@ -4239,21 +4734,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="0">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>489</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>43</v>
@@ -4265,21 +4763,24 @@
         <v>183</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>490</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
@@ -4297,27 +4798,30 @@
         <v>28</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>491</v>
       </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>82</v>
@@ -4332,7 +4836,7 @@
         <v>160</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>199</v>
@@ -4341,21 +4845,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s" s="0">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>492</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>9</v>
@@ -4376,18 +4883,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>493</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>82</v>
@@ -4399,10 +4909,10 @@
         <v>28</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>219</v>
@@ -4411,21 +4921,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>494</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>10</v>
@@ -4434,33 +4947,36 @@
         <v>145</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s" s="0">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>495</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>41</v>
@@ -4472,27 +4988,30 @@
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="0">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>496</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>8</v>
@@ -4513,21 +5032,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>497</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>8</v>
@@ -4548,21 +5070,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>498</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>56</v>
@@ -4577,27 +5102,30 @@
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s" s="0">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>499</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>8</v>
@@ -4615,12 +5143,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>500</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
@@ -4644,27 +5175,30 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>501</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>12</v>
@@ -4685,21 +5219,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s" s="0">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>502</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>45</v>
@@ -4714,18 +5251,21 @@
         <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s" s="0">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>503</v>
       </c>
       <c r="E104" s="1">
         <v>41091</v>
@@ -4746,7 +5286,7 @@
         <v>148</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
@@ -4755,18 +5295,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>504</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G105" t="s" s="0">
         <v>82</v>
@@ -4781,21 +5324,24 @@
         <v>114</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s" s="0">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>445</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -4810,7 +5356,7 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
@@ -4819,24 +5365,27 @@
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>505</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G127" t="s" s="0">
         <v>82</v>
@@ -4848,33 +5397,36 @@
         <v>31</v>
       </c>
       <c r="J127" t="s" s="0">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K127" t="s" s="0">
         <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s" s="0">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>506</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>45</v>
@@ -4883,7 +5435,7 @@
         <v>141</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>157</v>
@@ -4895,21 +5447,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>507</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>39</v>
@@ -4918,30 +5473,33 @@
         <v>243</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K129" t="s" s="0">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>508</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G130" t="s" s="0">
         <v>82</v>
@@ -4956,30 +5514,33 @@
         <v>103</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>509</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>41</v>
@@ -4988,10 +5549,10 @@
         <v>214</v>
       </c>
       <c r="J131" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="K131" t="s" s="0">
         <v>269</v>
-      </c>
-      <c r="K131" t="s" s="0">
-        <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
@@ -5000,13 +5561,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="D132" t="s" s="0">
+        <v>510</v>
+      </c>
       <c r="E132" s="1">
         <v>40909</v>
       </c>
@@ -5023,7 +5587,7 @@
         <v>229</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K132" t="s" s="0">
         <v>22</v>
@@ -5035,12 +5599,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>511</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
@@ -5070,21 +5637,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>512</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>9</v>
@@ -5105,21 +5675,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s" s="0">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>513</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>8</v>
@@ -5137,21 +5710,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s" s="0">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>514</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H136" t="s" s="0">
         <v>10</v>
@@ -5185,18 +5761,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.88671875"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -5207,7 +5783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>12500</v>
       </c>
@@ -5218,7 +5794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5229,7 +5805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5240,7 +5816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>19000</v>
       </c>
@@ -5251,7 +5827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>26000</v>
       </c>
@@ -5262,7 +5838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>17500</v>
       </c>
@@ -5273,7 +5849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>21000</v>
       </c>
@@ -5284,7 +5860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>31000</v>
       </c>
@@ -5295,7 +5871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>12500</v>
       </c>
@@ -5306,7 +5882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>14500</v>
       </c>
@@ -5317,7 +5893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>20500</v>
       </c>
@@ -5328,7 +5904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>16500</v>
       </c>
@@ -5339,7 +5915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>11000</v>
       </c>
@@ -5350,7 +5926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>31000</v>
       </c>
@@ -5374,13 +5950,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
@@ -5388,7 +5964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -5396,7 +5972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -5404,7 +5980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -5412,7 +5988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -5420,7 +5996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -5428,7 +6004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -5436,7 +6012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -5444,7 +6020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -5452,7 +6028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -5460,7 +6036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -5468,7 +6044,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -5476,7 +6052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -5484,7 +6060,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -5492,7 +6068,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -5500,7 +6076,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -5508,7 +6084,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -5516,7 +6092,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -5524,7 +6100,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -5545,13 +6121,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.44140625"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875"/>
+    <col min="6" max="6" customWidth="true" width="41.42578125"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -5565,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -5579,7 +6155,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5593,7 +6169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5607,7 +6183,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -5621,7 +6197,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -5635,7 +6211,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -5649,7 +6225,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -5663,7 +6239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -5671,13 +6247,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -5685,13 +6261,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -5699,7 +6275,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -5707,7 +6283,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -5715,7 +6291,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -5723,7 +6299,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -5731,7 +6307,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -5739,7 +6315,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -5747,7 +6323,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -5755,7 +6331,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -5763,7 +6339,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -5771,7 +6347,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -5779,7 +6355,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -5787,7 +6363,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -5795,7 +6371,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -5803,7 +6379,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -5811,7 +6387,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -5819,7 +6395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -5827,7 +6403,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -5835,7 +6411,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -5843,7 +6419,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -5851,7 +6427,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -5859,7 +6435,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -5867,7 +6443,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -5875,7 +6451,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -5883,7 +6459,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -5891,7 +6467,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -5899,7 +6475,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -5907,7 +6483,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -5915,7 +6491,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -5923,7 +6499,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -5931,7 +6507,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -5939,7 +6515,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -5947,7 +6523,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -5955,7 +6531,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -5963,7 +6539,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -5971,7 +6547,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -5979,7 +6555,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -5987,7 +6563,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -5995,7 +6571,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -6003,7 +6579,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="0">
         <v>60000</v>
       </c>
